--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE043A3F-EDA3-41DA-A7E2-25097EDED5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D243E294-F899-4638-929F-F099870FF817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>power mW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 cycles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -944,7 +940,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>64 bit MAC</a:t>
+              <a:t>32 bit MAC</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -968,26 +964,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1000,7 +976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$20</c:f>
+              <c:f>Sheet1!$O$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1009,33 +985,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$29</c:f>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1071,36 +1023,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$29</c:f>
+              <c:f>Sheet1!$O$31:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1482999999999999</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9514999999999998</c:v>
+                  <c:v>1.4232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8180000000000001</c:v>
+                  <c:v>1.8467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1216999999999997</c:v>
+                  <c:v>1.7499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4897999999999998</c:v>
+                  <c:v>1.9470000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4771999999999998</c:v>
+                  <c:v>2.0891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6215000000000002</c:v>
+                  <c:v>2.1818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6337999999999999</c:v>
+                  <c:v>2.1859000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5753000000000004</c:v>
+                  <c:v>2.0615999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1060,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C46-4AC2-A3B1-1B77A66C6E9C}"/>
+              <c16:uniqueId val="{00000004-8C41-473F-B921-65ECF9C22611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,7 +1069,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$20</c:f>
+              <c:f>Sheet1!$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1126,33 +1078,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$29</c:f>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1188,36 +1116,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$21:$G$29</c:f>
+              <c:f>Sheet1!$P$31:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0652999999999999</c:v>
+                  <c:v>0.4536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7188000000000001</c:v>
+                  <c:v>0.69289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7757000000000001</c:v>
+                  <c:v>0.87939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0590999999999999</c:v>
+                  <c:v>0.99619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2027999999999999</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1629</c:v>
+                  <c:v>1.0102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3687</c:v>
+                  <c:v>1.1172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3609</c:v>
+                  <c:v>1.0952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2442000000000002</c:v>
+                  <c:v>1.0846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1153,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C46-4AC2-A3B1-1B77A66C6E9C}"/>
+              <c16:uniqueId val="{00000005-8C41-473F-B921-65ECF9C22611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,7 +1162,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$20</c:f>
+              <c:f>Sheet1!$Q$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,33 +1171,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$29</c:f>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1305,36 +1209,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$21:$H$29</c:f>
+              <c:f>Sheet1!$Q$31:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.4677</c:v>
+                  <c:v>0.17100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60629999999999995</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78910000000000002</c:v>
+                  <c:v>0.3826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83389999999999997</c:v>
+                  <c:v>0.38579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85509999999999997</c:v>
+                  <c:v>0.433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88190000000000002</c:v>
+                  <c:v>0.4173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87480000000000002</c:v>
+                  <c:v>0.4088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,7 +1246,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C46-4AC2-A3B1-1B77A66C6E9C}"/>
+              <c16:uniqueId val="{00000006-8C41-473F-B921-65ECF9C22611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1351,7 +1255,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$20</c:f>
+              <c:f>Sheet1!$R$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1360,33 +1264,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$29</c:f>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1422,36 +1302,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$21:$I$29</c:f>
+              <c:f>Sheet1!$R$31:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.9099999999999994E-2</c:v>
+                  <c:v>4.6600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15140000000000001</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1797</c:v>
+                  <c:v>8.1900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>8.2699999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20069999999999999</c:v>
+                  <c:v>0.1013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21479999999999999</c:v>
+                  <c:v>0.1153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.218</c:v>
+                  <c:v>0.1153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21360000000000001</c:v>
+                  <c:v>0.1094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20480000000000001</c:v>
+                  <c:v>0.10059999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1339,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5C46-4AC2-A3B1-1B77A66C6E9C}"/>
+              <c16:uniqueId val="{00000007-8C41-473F-B921-65ECF9C22611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,26 +1396,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1620,26 +1480,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1682,13 +1522,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1723,30 +1556,1373 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>16 bit MAC</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$42:$O$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.35149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92789999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5615-4866-A312-25BCF206D433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$42:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46679999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5615-4866-A312-25BCF206D433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$42:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5615-4866-A312-25BCF206D433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$42:$R$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.19E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4699999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5615-4866-A312-25BCF206D433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68693983"/>
+        <c:axId val="68696383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68693983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Toggle Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68696383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68696383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Power (mW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68693983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>64 bit MAC</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$19:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1482999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9514999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1216999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4897999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4771999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6215000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6337999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5753000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CFC-4ABA-840D-6ACF4C3D6885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$19:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7188000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7757000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0590999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2442000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CFC-4ABA-840D-6ACF4C3D6885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$19:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87480000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CFC-4ABA-840D-6ACF4C3D6885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20480000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CFC-4ABA-840D-6ACF4C3D6885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68693983"/>
+        <c:axId val="68696383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68693983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Toggle Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68696383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68696383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Power (mW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68693983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1766,46 +2942,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2361,536 +3497,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2917,27 +3537,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
+        <xdr:cNvPr id="5" name="圖表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A01495E-4371-3062-08F2-7551F0FC3ECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C1D52A-042F-4109-852F-45D558BB4F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2946,6 +3568,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793CEECF-A87E-4208-829B-0FCF8ADD5B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA3EC32-3838-4651-9252-E396B5173A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3217,10 +3915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3393,18 +4091,42 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
         <v>7</v>
       </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3412,33 +4134,86 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>0.1</v>
+      </c>
+      <c r="O19">
+        <f>B20</f>
+        <v>2.1482999999999999</v>
+      </c>
+      <c r="P19">
+        <f>B31</f>
+        <v>1.0652999999999999</v>
+      </c>
+      <c r="Q19">
+        <f>B42</f>
+        <v>0.4677</v>
+      </c>
+      <c r="R19">
+        <f>B53</f>
+        <v>9.9099999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.1</v>
       </c>
       <c r="B20">
         <v>2.1482999999999999</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>1.06</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.2</v>
+      </c>
+      <c r="O20">
+        <f>B21</f>
+        <v>2.9514999999999998</v>
+      </c>
+      <c r="P20">
+        <f>B32</f>
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="Q20">
+        <f>B43</f>
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="R20">
+        <f>B54</f>
+        <v>0.15140000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -3446,26 +4221,38 @@
         <v>2.9514999999999998</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
-        <f>B20</f>
-        <v>2.1482999999999999</v>
-      </c>
-      <c r="G21">
-        <f>B31</f>
-        <v>1.0652999999999999</v>
-      </c>
-      <c r="H21">
-        <f>B42</f>
-        <v>0.4677</v>
+        <v>1.4232</v>
       </c>
       <c r="I21">
-        <f>B53</f>
-        <v>9.9099999999999994E-2</v>
+        <v>0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="N21">
+        <v>0.3</v>
+      </c>
+      <c r="O21">
+        <f>B22</f>
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="P21">
+        <f>B33</f>
+        <v>1.7757000000000001</v>
+      </c>
+      <c r="Q21">
+        <f>B44</f>
+        <v>0.748</v>
+      </c>
+      <c r="R21">
+        <f>B55</f>
+        <v>0.1797</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.3</v>
       </c>
@@ -3473,26 +4260,38 @@
         <v>3.8180000000000001</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F30" si="1">B21</f>
-        <v>2.9514999999999998</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G30" si="2">B32</f>
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H30" si="3">B43</f>
-        <v>0.60629999999999995</v>
+        <v>1.8467</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I30" si="4">B54</f>
-        <v>0.15140000000000001</v>
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="N22">
+        <v>0.4</v>
+      </c>
+      <c r="O22">
+        <f>B23</f>
+        <v>4.1216999999999997</v>
+      </c>
+      <c r="P22">
+        <f>B34</f>
+        <v>2.0590999999999999</v>
+      </c>
+      <c r="Q22">
+        <f>B45</f>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R22">
+        <f>B56</f>
+        <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -3500,26 +4299,38 @@
         <v>4.1216999999999997</v>
       </c>
       <c r="E23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>1.7757000000000001</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0.748</v>
+        <v>1.7499</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
-        <v>0.1797</v>
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <f>B24</f>
+        <v>4.4897999999999998</v>
+      </c>
+      <c r="P23">
+        <f>B35</f>
+        <v>2.2027999999999999</v>
+      </c>
+      <c r="Q23">
+        <f>B46</f>
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="R23">
+        <f>B57</f>
+        <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -3527,26 +4338,38 @@
         <v>4.4897999999999998</v>
       </c>
       <c r="E24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>4.1216999999999997</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>2.0590999999999999</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0.78910000000000002</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>0.20499999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0.8579</v>
+      </c>
+      <c r="N24">
+        <v>0.6</v>
+      </c>
+      <c r="O24">
+        <f>B25</f>
+        <v>4.4771999999999998</v>
+      </c>
+      <c r="P24">
+        <f>B36</f>
+        <v>2.1629</v>
+      </c>
+      <c r="Q24">
+        <f>B47</f>
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="R24">
+        <f>B58</f>
+        <v>0.21479999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.6</v>
       </c>
@@ -3554,26 +4377,38 @@
         <v>4.4771999999999998</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>4.4897999999999998</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>2.2027999999999999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>0.83389999999999997</v>
+        <v>2.0891999999999999</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>0.20069999999999999</v>
+        <v>0.6</v>
+      </c>
+      <c r="J25">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="N25">
+        <v>0.7</v>
+      </c>
+      <c r="O25">
+        <f>B26</f>
+        <v>4.6215000000000002</v>
+      </c>
+      <c r="P25">
+        <f>B37</f>
+        <v>2.3687</v>
+      </c>
+      <c r="Q25">
+        <f>B48</f>
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R25">
+        <f>B59</f>
+        <v>0.218</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.7</v>
       </c>
@@ -3581,26 +4416,38 @@
         <v>4.6215000000000002</v>
       </c>
       <c r="E26">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>4.4771999999999998</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>2.1629</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>0.85509999999999997</v>
+        <v>2.1818</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>0.21479999999999999</v>
+        <v>0.7</v>
+      </c>
+      <c r="J26">
+        <v>1.0044</v>
+      </c>
+      <c r="N26">
+        <v>0.8</v>
+      </c>
+      <c r="O26">
+        <f>B27</f>
+        <v>4.6337999999999999</v>
+      </c>
+      <c r="P26">
+        <f>B38</f>
+        <v>2.3609</v>
+      </c>
+      <c r="Q26">
+        <f>B49</f>
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="R26">
+        <f>B60</f>
+        <v>0.21360000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.8</v>
       </c>
@@ -3608,26 +4455,38 @@
         <v>4.6337999999999999</v>
       </c>
       <c r="E27">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>4.6215000000000002</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>2.3687</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>0.84799999999999998</v>
+        <v>2.1859000000000002</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>0.218</v>
+        <v>0.8</v>
+      </c>
+      <c r="J27">
+        <v>1.0084</v>
+      </c>
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+      <c r="O27">
+        <f>B28</f>
+        <v>4.5753000000000004</v>
+      </c>
+      <c r="P27">
+        <f>B39</f>
+        <v>2.2442000000000002</v>
+      </c>
+      <c r="Q27">
+        <f>B50</f>
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="R27">
+        <f>B61</f>
+        <v>0.20480000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.9</v>
       </c>
@@ -3635,47 +4494,19 @@
         <v>4.5753000000000004</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>4.6337999999999999</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2.3609</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>0.88190000000000002</v>
+        <v>2.0615999999999999</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
-        <v>0.21360000000000001</v>
+        <v>0.9</v>
+      </c>
+      <c r="J28">
+        <v>0.92789999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E29">
-        <v>0.9</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>4.5753000000000004</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>2.2442000000000002</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>0.20480000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3683,82 +4514,394 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" t="s">
         <v>9</v>
       </c>
+      <c r="R30" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.1</v>
       </c>
       <c r="B31">
         <v>1.0652999999999999</v>
       </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>0.4536</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="O31">
+        <f>F20</f>
+        <v>1.06</v>
+      </c>
+      <c r="P31">
+        <f>F31</f>
+        <v>0.4536</v>
+      </c>
+      <c r="Q31">
+        <f>F42</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R31">
+        <f>F53</f>
+        <v>4.6600000000000003E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.2</v>
       </c>
       <c r="B32">
         <v>1.7188000000000001</v>
       </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="I32">
+        <v>0.2</v>
+      </c>
+      <c r="J32">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="N32">
+        <v>0.2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O39" si="1">F21</f>
+        <v>1.4232</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:P39" si="2">F32</f>
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q39" si="3">F43</f>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R39" si="4">F54</f>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.3</v>
       </c>
       <c r="B33">
         <v>1.7757000000000001</v>
       </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+      <c r="F33">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="I33">
+        <v>0.3</v>
+      </c>
+      <c r="J33">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="N33">
+        <v>0.3</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>1.8467</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>8.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.4</v>
       </c>
       <c r="B34">
         <v>2.0590999999999999</v>
       </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="I34">
+        <v>0.4</v>
+      </c>
+      <c r="J34">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="N34">
+        <v>0.4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>1.7499</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>0.3826</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>8.2699999999999996E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35">
         <v>2.2027999999999999</v>
       </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="N35">
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>0.1013</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.6</v>
       </c>
       <c r="B36">
         <v>2.1629</v>
       </c>
+      <c r="E36">
+        <v>0.6</v>
+      </c>
+      <c r="F36">
+        <v>1.0102</v>
+      </c>
+      <c r="I36">
+        <v>0.6</v>
+      </c>
+      <c r="J36">
+        <v>0.4783</v>
+      </c>
+      <c r="N36">
+        <v>0.6</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>2.0891999999999999</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>1.0102</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0.433</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>0.1153</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.7</v>
       </c>
       <c r="B37">
         <v>2.3687</v>
       </c>
+      <c r="E37">
+        <v>0.7</v>
+      </c>
+      <c r="F37">
+        <v>1.1172</v>
+      </c>
+      <c r="I37">
+        <v>0.7</v>
+      </c>
+      <c r="J37">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.7</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>2.1818</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>1.1172</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.432</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>0.1153</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.8</v>
       </c>
       <c r="B38">
         <v>2.3609</v>
       </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <v>1.0952</v>
+      </c>
+      <c r="I38">
+        <v>0.8</v>
+      </c>
+      <c r="J38">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="N38">
+        <v>0.8</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>2.1859000000000002</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>1.0952</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.4173</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>0.1094</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.9</v>
       </c>
       <c r="B39">
         <v>2.2442000000000002</v>
       </c>
+      <c r="E39">
+        <v>0.9</v>
+      </c>
+      <c r="F39">
+        <v>1.0846</v>
+      </c>
+      <c r="I39">
+        <v>0.9</v>
+      </c>
+      <c r="J39">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.9</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2.0615999999999999</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>1.0846</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.4088</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>0.10059999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3766,82 +4909,394 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.1</v>
       </c>
       <c r="B42">
         <v>0.4677</v>
       </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.1</v>
+      </c>
+      <c r="J42">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.1</v>
+      </c>
+      <c r="O42">
+        <f>J20</f>
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="P42">
+        <f>J31</f>
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="Q42">
+        <f>J42</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="R42">
+        <f>J53</f>
+        <v>1.6899999999999998E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.2</v>
       </c>
       <c r="B43">
         <v>0.60629999999999995</v>
       </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I43">
+        <v>0.2</v>
+      </c>
+      <c r="J43">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="N43">
+        <v>0.2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O50" si="5">J21</f>
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:P50" si="6">J32</f>
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:Q50" si="7">J43</f>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43:R50" si="8">J54</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.3</v>
       </c>
       <c r="B44">
         <v>0.748</v>
       </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+      <c r="F44">
+        <v>0.35</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.1394</v>
+      </c>
+      <c r="N44">
+        <v>0.3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0.1394</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.4</v>
       </c>
       <c r="B45">
         <v>0.78910000000000002</v>
       </c>
+      <c r="E45">
+        <v>0.4</v>
+      </c>
+      <c r="F45">
+        <v>0.3826</v>
+      </c>
+      <c r="I45">
+        <v>0.4</v>
+      </c>
+      <c r="J45">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="N45">
+        <v>0.4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>3.3399999999999999E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.5</v>
       </c>
       <c r="B46">
         <v>0.83389999999999997</v>
       </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>0.8579</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>4.19E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.6</v>
       </c>
       <c r="B47">
         <v>0.85509999999999997</v>
       </c>
+      <c r="E47">
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <v>0.433</v>
+      </c>
+      <c r="I47">
+        <v>0.6</v>
+      </c>
+      <c r="J47">
+        <v>0.1704</v>
+      </c>
+      <c r="N47">
+        <v>0.6</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0.4783</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0.1704</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>4.5699999999999998E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.7</v>
       </c>
       <c r="B48">
         <v>0.84799999999999998</v>
       </c>
+      <c r="E48">
+        <v>0.7</v>
+      </c>
+      <c r="F48">
+        <v>0.432</v>
+      </c>
+      <c r="I48">
+        <v>0.7</v>
+      </c>
+      <c r="J48">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="N48">
+        <v>0.7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>1.0044</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>4.6800000000000001E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.8</v>
       </c>
       <c r="B49">
         <v>0.88190000000000002</v>
       </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>0.4173</v>
+      </c>
+      <c r="I49">
+        <v>0.8</v>
+      </c>
+      <c r="J49">
+        <v>0.1986</v>
+      </c>
+      <c r="N49">
+        <v>0.8</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>1.0084</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>0.1986</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>4.2799999999999998E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.9</v>
       </c>
       <c r="B50">
         <v>0.87480000000000002</v>
       </c>
+      <c r="E50">
+        <v>0.9</v>
+      </c>
+      <c r="F50">
+        <v>0.4088</v>
+      </c>
+      <c r="I50">
+        <v>0.9</v>
+      </c>
+      <c r="J50">
+        <v>0.1767</v>
+      </c>
+      <c r="N50">
+        <v>0.9</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>0.1767</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>4.4699999999999997E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3849,79 +5304,205 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.1</v>
       </c>
       <c r="B53">
         <v>9.9099999999999994E-2</v>
       </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.1</v>
+      </c>
+      <c r="J53">
+        <v>1.6899999999999998E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.2</v>
       </c>
       <c r="B54">
         <v>0.15140000000000001</v>
       </c>
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54">
+        <v>0.05</v>
+      </c>
+      <c r="I54">
+        <v>0.2</v>
+      </c>
+      <c r="J54">
+        <v>2.6499999999999999E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.3</v>
       </c>
       <c r="B55">
         <v>0.1797</v>
       </c>
+      <c r="E55">
+        <v>0.3</v>
+      </c>
+      <c r="F55">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.3</v>
+      </c>
+      <c r="J55">
+        <v>3.1800000000000002E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.4</v>
       </c>
       <c r="B56">
         <v>0.20499999999999999</v>
       </c>
+      <c r="E56">
+        <v>0.4</v>
+      </c>
+      <c r="F56">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.4</v>
+      </c>
+      <c r="J56">
+        <v>3.3399999999999999E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.5</v>
       </c>
       <c r="B57">
         <v>0.20069999999999999</v>
       </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.1013</v>
+      </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
+      <c r="J57">
+        <v>4.19E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.6</v>
       </c>
       <c r="B58">
         <v>0.21479999999999999</v>
       </c>
+      <c r="E58">
+        <v>0.6</v>
+      </c>
+      <c r="F58">
+        <v>0.1153</v>
+      </c>
+      <c r="I58">
+        <v>0.6</v>
+      </c>
+      <c r="J58">
+        <v>4.5699999999999998E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.7</v>
       </c>
       <c r="B59">
         <v>0.218</v>
       </c>
+      <c r="E59">
+        <v>0.7</v>
+      </c>
+      <c r="F59">
+        <v>0.1153</v>
+      </c>
+      <c r="I59">
+        <v>0.7</v>
+      </c>
+      <c r="J59">
+        <v>4.6800000000000001E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.8</v>
       </c>
       <c r="B60">
         <v>0.21360000000000001</v>
       </c>
+      <c r="E60">
+        <v>0.8</v>
+      </c>
+      <c r="F60">
+        <v>0.1094</v>
+      </c>
+      <c r="I60">
+        <v>0.8</v>
+      </c>
+      <c r="J60">
+        <v>4.2799999999999998E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.9</v>
       </c>
       <c r="B61">
         <v>0.20480000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.9</v>
+      </c>
+      <c r="F61">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0.9</v>
+      </c>
+      <c r="J61">
+        <v>4.4699999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D243E294-F899-4638-929F-F099870FF817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1DF56-53B1-4DBD-AB9C-254369305699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,37 @@
     <t>Toggle rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>OPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPS/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area um^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPS/mm2</t>
+  </si>
+  <si>
+    <t>TOPS/mm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -129,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1023,7 +1055,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$31:$O$39</c:f>
+              <c:f>Sheet1!$O$32:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1116,7 +1148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$31:$P$39</c:f>
+              <c:f>Sheet1!$P$32:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1209,7 +1241,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$31:$Q$39</c:f>
+              <c:f>Sheet1!$Q$32:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1302,7 +1334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$31:$R$39</c:f>
+              <c:f>Sheet1!$R$32:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1705,7 +1737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$42:$O$50</c:f>
+              <c:f>Sheet1!$O$45:$O$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1798,7 +1830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$42:$P$50</c:f>
+              <c:f>Sheet1!$P$45:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1891,7 +1923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$42:$Q$50</c:f>
+              <c:f>Sheet1!$Q$45:$Q$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1984,7 +2016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$42:$R$50</c:f>
+              <c:f>Sheet1!$R$45:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2941,7 +2973,2838 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$19:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$19:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5256461111280628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4334867241131768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9032920365035868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9138968027856915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FDE-4355-87B2-E45CAB13FCAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$19:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.70381149113021568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0784275663340797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7902859086596128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2122321801419806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FDE-4355-87B2-E45CAB13FCAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$19:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$19:$AA$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.33200861894374778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50864156588357901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87900419372900818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6989466530750932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FDE-4355-87B2-E45CAB13FCAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737317696"/>
+        <c:axId val="737319136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737317696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>VDD</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737319136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737319136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/W</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737317696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Area</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$40:$AB$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>716129748387.81299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1444158019770.5234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3289419581914.7715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15524334394162.852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$40:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>827770714134.35059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648254173719.67212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417093770687.85101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199278134884.19547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7159-4585-AC5E-BBD9F9078A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$40:$AC$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>402949591006.16516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>866397217132.13855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2056766762649.1157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8561277342579.5137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$40:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>827770714134.35059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648254173719.67212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417093770687.85101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199278134884.19547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7159-4585-AC5E-BBD9F9078A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$40:$AD$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>342657031150.95074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698411811540.55688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1844899314619.9048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7665478517496.4561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$40:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>827770714134.35059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648254173719.67212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417093770687.85101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199278134884.19547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7159-4585-AC5E-BBD9F9078A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$40:$AE$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>332892251100.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>649496153359.03174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1814223512336.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7057163020465.7734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$40:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>827770714134.35059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648254173719.67212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417093770687.85101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199278134884.19547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7159-4585-AC5E-BBD9F9078A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737314816"/>
+        <c:axId val="307625520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737314816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16000000000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/W</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307625520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307625520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/mm2</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737314816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$49:$Z$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$49:$AA$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4376846482109.6406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1451378809869.376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716129748387.81299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BA6-4C04-87A3-F1B86993ED60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$49:$Z$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$49:$AB$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1913271407115.4563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>879171117470.44897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>373258980144.48859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BA6-4C04-87A3-F1B86993ED60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$49:$Z$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$49:$AC$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1531721961829.4888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705134081245.54895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332892251100.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BA6-4C04-87A3-F1B86993ED60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="809995616"/>
+        <c:axId val="809997056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="809995616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>MAC size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809997056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="809997056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/W</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809995616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Area</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$56:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$56:$AA$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>827770714134.35059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1733907603531.6233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3764833443768.4478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3280-408D-A3F7-4C36FEE07D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$56:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$56:$AB$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>648254173719.67212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1357879448548.8616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2948363540300.5918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3280-408D-A3F7-4C36FEE07D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$56:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$56:$AC$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>417093770687.85101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>873674373872.52319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1897009099573.2488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3280-408D-A3F7-4C36FEE07D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$56:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$56:$AD$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>199278134884.19547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417422200850.20551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>906348792018.32996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3280-408D-A3F7-4C36FEE07D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774330944"/>
+        <c:axId val="774334304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774330944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>MAC size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774334304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774334304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/mm2</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774330944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3497,20 +6360,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3537,16 +8464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>169025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>271895</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3575,16 +8502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>367838</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116031</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3613,16 +8540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>396933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>499803</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141662</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3644,6 +8571,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B18AB64-3D83-A347-5404-35A0326578DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFB0263-3E46-F825-4004-7C05721AE8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="圖表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225F66F6-5432-8D0E-8E1B-AE1EA5DD2D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="圖表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8072DFEF-4B84-17BC-9C4D-F8F96DE88E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3915,19 +8986,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.89999999999999902</v>
       </c>
@@ -3956,7 +9029,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.999999999999999</v>
       </c>
@@ -3971,7 +9044,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -3986,7 +9059,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -4001,7 +9074,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -4016,7 +9089,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -4031,7 +9104,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -4046,7 +9119,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.6</v>
       </c>
@@ -4061,7 +9134,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.7</v>
       </c>
@@ -4076,7 +9149,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -4091,7 +9164,94 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1">
+        <f>O17/($B$17/1000000)</f>
+        <v>827770714134.35059</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ref="P15:R15" si="1">P17/($B$17/1000000)</f>
+        <v>648254173719.67212</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>417093770687.85101</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="1"/>
+        <v>199278134884.19547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <f>O17/(MAX(O19:O27)/1000)/10^12</f>
+        <v>0.33200861894374778</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="2">P17/(MAX(P19:P27)/1000)/10^12</f>
+        <v>0.50864156588357901</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="3">Q17/(MAX(Q19:Q27)/1000)/10^12</f>
+        <v>0.87900419372900818</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16" si="4">R17/(MAX(R19:R27)/1000)/10^12</f>
+        <v>1.6989466530750932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f>((0.42+0.51)*3)*64
++((0.25+0.75)*14)*32+((0.25+0.75)*14)*2*16+((0.25+0.75)*14)*3*8+((0.25+0.75)*14)*4*4+((0.25+0.75)*14)*5*2+((0.25+0.75)*14)*6*1</f>
+        <v>1858.56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f>((0.42+0.51)*3)*32
++((0.25+0.75)*14)*16+((0.25+0.75)*14)*2*8+((0.25+0.75)*14)*3*4+((0.25+0.75)*14)*4*2+((0.25+0.75)*14)*5*1</f>
+        <v>887.28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f>((0.42+0.51)*3)*16
++((0.25+0.75)*14)*8+((0.25+0.75)*14)*2*4+((0.25+0.75)*14)*3*2+((0.25+0.75)*14)*4*1</f>
+        <v>408.64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="1">
+        <f>2/(2*$D$11)*10^12</f>
+        <v>1538461538.4615386</v>
+      </c>
+      <c r="P17" s="1">
+        <f>2/(2*$D$8)*10^12</f>
+        <v>1204819277.1084337</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>2/(2*$D$5)*10^12</f>
+        <v>775193798.44961238</v>
+      </c>
+      <c r="R17" s="1">
+        <f>2/(2*$D$2)*10^12</f>
+        <v>370370370.37037033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4125,8 +9285,23 @@
       <c r="R18" t="s">
         <v>11</v>
       </c>
+      <c r="S18" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4158,23 +9333,51 @@
         <v>0.1</v>
       </c>
       <c r="O19">
-        <f>B20</f>
+        <f t="shared" ref="O19:O27" si="5">B20</f>
         <v>2.1482999999999999</v>
       </c>
       <c r="P19">
-        <f>B31</f>
+        <f t="shared" ref="P19:P27" si="6">B31</f>
         <v>1.0652999999999999</v>
       </c>
       <c r="Q19">
-        <f>B42</f>
+        <f t="shared" ref="Q19:Q27" si="7">B42</f>
         <v>0.4677</v>
       </c>
       <c r="R19">
-        <f>B53</f>
+        <f t="shared" ref="R19:R27" si="8">B53</f>
         <v>9.9099999999999994E-2</v>
       </c>
+      <c r="S19" s="1">
+        <f>$O$17*1000/O19</f>
+        <v>716129748387.81299</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" ref="T19:V27" si="9">$O$17*1000/P19</f>
+        <v>1444158019770.5234</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="9"/>
+        <v>3289419581914.7715</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="9"/>
+        <v>15524334394162.852</v>
+      </c>
+      <c r="X19">
+        <v>1.8</v>
+      </c>
+      <c r="Y19">
+        <v>1.5256461111280628</v>
+      </c>
+      <c r="Z19">
+        <v>0.70381149113021568</v>
+      </c>
+      <c r="AA19">
+        <v>0.33200861894374778</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -4197,23 +9400,51 @@
         <v>0.2</v>
       </c>
       <c r="O20">
-        <f>B21</f>
+        <f t="shared" si="5"/>
         <v>2.9514999999999998</v>
       </c>
       <c r="P20">
-        <f>B32</f>
+        <f t="shared" si="6"/>
         <v>1.7188000000000001</v>
       </c>
       <c r="Q20">
-        <f>B43</f>
+        <f t="shared" si="7"/>
         <v>0.60629999999999995</v>
       </c>
       <c r="R20">
-        <f>B54</f>
+        <f t="shared" si="8"/>
         <v>0.15140000000000001</v>
       </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S27" si="10">$O$17*1000/O20</f>
+        <v>521247344896.33704</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="9"/>
+        <v>895078856447.25305</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="9"/>
+        <v>2537459242060.9248</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="9"/>
+        <v>10161568946245.301</v>
+      </c>
+      <c r="X20">
+        <v>1.5</v>
+      </c>
+      <c r="Y20">
+        <v>2.4334867241131768</v>
+      </c>
+      <c r="Z20">
+        <v>1.0784275663340797</v>
+      </c>
+      <c r="AA20">
+        <v>0.50864156588357901</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -4236,23 +9467,51 @@
         <v>0.3</v>
       </c>
       <c r="O21">
-        <f>B22</f>
+        <f t="shared" si="5"/>
         <v>3.8180000000000001</v>
       </c>
       <c r="P21">
-        <f>B33</f>
+        <f t="shared" si="6"/>
         <v>1.7757000000000001</v>
       </c>
       <c r="Q21">
-        <f>B44</f>
+        <f t="shared" si="7"/>
         <v>0.748</v>
       </c>
       <c r="R21">
-        <f>B55</f>
+        <f t="shared" si="8"/>
         <v>0.1797</v>
       </c>
+      <c r="S21" s="1">
+        <f t="shared" si="10"/>
+        <v>402949591006.16516</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="9"/>
+        <v>866397217132.13855</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="9"/>
+        <v>2056766762649.1157</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="9"/>
+        <v>8561277342579.5137</v>
+      </c>
+      <c r="X21">
+        <v>1.2</v>
+      </c>
+      <c r="Y21">
+        <v>3.9032920365035868</v>
+      </c>
+      <c r="Z21">
+        <v>1.7902859086596128</v>
+      </c>
+      <c r="AA21">
+        <v>0.87900419372900818</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.3</v>
       </c>
@@ -4275,23 +9534,51 @@
         <v>0.4</v>
       </c>
       <c r="O22">
-        <f>B23</f>
+        <f t="shared" si="5"/>
         <v>4.1216999999999997</v>
       </c>
       <c r="P22">
-        <f>B34</f>
+        <f t="shared" si="6"/>
         <v>2.0590999999999999</v>
       </c>
       <c r="Q22">
-        <f>B45</f>
+        <f t="shared" si="7"/>
         <v>0.78910000000000002</v>
       </c>
       <c r="R22">
-        <f>B56</f>
+        <f t="shared" si="8"/>
         <v>0.20499999999999999</v>
       </c>
+      <c r="S22" s="1">
+        <f t="shared" si="10"/>
+        <v>373258980144.48859</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="9"/>
+        <v>747152415356.97083</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="9"/>
+        <v>1949640778686.5271</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="9"/>
+        <v>7504690431519.7012</v>
+      </c>
+      <c r="X22">
+        <v>0.9</v>
+      </c>
+      <c r="Y22">
+        <v>7.9138968027856915</v>
+      </c>
+      <c r="Z22">
+        <v>3.2122321801419806</v>
+      </c>
+      <c r="AA22">
+        <v>1.6989466530750932</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -4314,23 +9601,39 @@
         <v>0.5</v>
       </c>
       <c r="O23">
-        <f>B24</f>
+        <f t="shared" si="5"/>
         <v>4.4897999999999998</v>
       </c>
       <c r="P23">
-        <f>B35</f>
+        <f t="shared" si="6"/>
         <v>2.2027999999999999</v>
       </c>
       <c r="Q23">
-        <f>B46</f>
+        <f t="shared" si="7"/>
         <v>0.83389999999999997</v>
       </c>
       <c r="R23">
-        <f>B57</f>
+        <f t="shared" si="8"/>
         <v>0.20069999999999999</v>
       </c>
+      <c r="S23" s="1">
+        <f t="shared" si="10"/>
+        <v>342657031150.95074</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="9"/>
+        <v>698411811540.55688</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="9"/>
+        <v>1844899314619.9048</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="9"/>
+        <v>7665478517496.4561</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -4353,23 +9656,39 @@
         <v>0.6</v>
       </c>
       <c r="O24">
-        <f>B25</f>
+        <f t="shared" si="5"/>
         <v>4.4771999999999998</v>
       </c>
       <c r="P24">
-        <f>B36</f>
+        <f t="shared" si="6"/>
         <v>2.1629</v>
       </c>
       <c r="Q24">
-        <f>B47</f>
+        <f t="shared" si="7"/>
         <v>0.85509999999999997</v>
       </c>
       <c r="R24">
-        <f>B58</f>
+        <f t="shared" si="8"/>
         <v>0.21479999999999999</v>
       </c>
+      <c r="S24" s="1">
+        <f t="shared" si="10"/>
+        <v>343621356754.56506</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="9"/>
+        <v>711295731869.96094</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="9"/>
+        <v>1799159792376.9602</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="9"/>
+        <v>7162297665090.9619</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.6</v>
       </c>
@@ -4392,23 +9711,39 @@
         <v>0.7</v>
       </c>
       <c r="O25">
-        <f>B26</f>
+        <f t="shared" si="5"/>
         <v>4.6215000000000002</v>
       </c>
       <c r="P25">
-        <f>B37</f>
+        <f t="shared" si="6"/>
         <v>2.3687</v>
       </c>
       <c r="Q25">
-        <f>B48</f>
+        <f t="shared" si="7"/>
         <v>0.84799999999999998</v>
       </c>
       <c r="R25">
-        <f>B59</f>
+        <f t="shared" si="8"/>
         <v>0.218</v>
       </c>
+      <c r="S25" s="1">
+        <f t="shared" si="10"/>
+        <v>332892251100.625</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="9"/>
+        <v>649496153359.03174</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="9"/>
+        <v>1814223512336.72</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="9"/>
+        <v>7057163020465.7734</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.7</v>
       </c>
@@ -4431,23 +9766,39 @@
         <v>0.8</v>
       </c>
       <c r="O26">
-        <f>B27</f>
+        <f t="shared" si="5"/>
         <v>4.6337999999999999</v>
       </c>
       <c r="P26">
-        <f>B38</f>
+        <f t="shared" si="6"/>
         <v>2.3609</v>
       </c>
       <c r="Q26">
-        <f>B49</f>
+        <f t="shared" si="7"/>
         <v>0.88190000000000002</v>
       </c>
       <c r="R26">
-        <f>B60</f>
+        <f t="shared" si="8"/>
         <v>0.21360000000000001</v>
       </c>
+      <c r="S26" s="1">
+        <f t="shared" si="10"/>
+        <v>332008618943.7478</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="9"/>
+        <v>651641974866.16907</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="9"/>
+        <v>1744485246016.032</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="9"/>
+        <v>7202535292422.9326</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.8</v>
       </c>
@@ -4470,23 +9821,39 @@
         <v>0.9</v>
       </c>
       <c r="O27">
-        <f>B28</f>
+        <f t="shared" si="5"/>
         <v>4.5753000000000004</v>
       </c>
       <c r="P27">
-        <f>B39</f>
+        <f t="shared" si="6"/>
         <v>2.2442000000000002</v>
       </c>
       <c r="Q27">
-        <f>B50</f>
+        <f t="shared" si="7"/>
         <v>0.87480000000000002</v>
       </c>
       <c r="R27">
-        <f>B61</f>
+        <f t="shared" si="8"/>
         <v>0.20480000000000001</v>
       </c>
+      <c r="S27" s="1">
+        <f t="shared" si="10"/>
+        <v>336253696689.078</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="9"/>
+        <v>685527822146.66187</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="9"/>
+        <v>1758643733952.376</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="9"/>
+        <v>7512019230769.2314</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.9</v>
       </c>
@@ -4505,8 +9872,48 @@
       <c r="J28">
         <v>0.92789999999999995</v>
       </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O30/($F$17/1000000)</f>
+        <v>1733907603531.6233</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" ref="P28:R28" si="11">P30/($F$17/1000000)</f>
+        <v>1357879448548.8616</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="11"/>
+        <v>873674373872.52319</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="11"/>
+        <v>417422200850.20551</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <f>O30/(MAX(O32:O40)/1000)/10^12</f>
+        <v>0.70381149113021568</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="12">P30/(MAX(P32:P40)/1000)/10^12</f>
+        <v>1.0784275663340797</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29" si="13">Q30/(MAX(Q32:Q40)/1000)/10^12</f>
+        <v>1.7902859086596128</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29" si="14">R30/(MAX(R32:R40)/1000)/10^12</f>
+        <v>3.2122321801419806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4535,22 +9942,26 @@
         <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="O30" s="1">
+        <f>2/(2*$D$11)*10^12</f>
+        <v>1538461538.4615386</v>
+      </c>
+      <c r="P30" s="1">
+        <f>2/(2*$D$8)*10^12</f>
+        <v>1204819277.1084337</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>2/(2*$D$5)*10^12</f>
+        <v>775193798.44961238</v>
+      </c>
+      <c r="R30" s="1">
+        <f>2/(2*$D$2)*10^12</f>
+        <v>370370370.37037033</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -4569,66 +9980,81 @@
       <c r="J31">
         <v>0.15629999999999999</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.2</v>
+      </c>
+      <c r="B32">
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="I32">
+        <v>0.2</v>
+      </c>
+      <c r="J32">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="N32">
         <v>0.1</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <f>F20</f>
         <v>1.06</v>
       </c>
-      <c r="P31">
+      <c r="P32">
         <f>F31</f>
         <v>0.4536</v>
       </c>
-      <c r="Q31">
+      <c r="Q32">
         <f>F42</f>
         <v>0.17100000000000001</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <f>F53</f>
         <v>4.6600000000000003E-2</v>
       </c>
+      <c r="S32" s="1">
+        <f>$O$17*1000/O32</f>
+        <v>1451378809869.376</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32:T40" si="15">$O$17*1000/P32</f>
+        <v>3391670058336.7251</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" ref="U32:U40" si="16">$O$17*1000/Q32</f>
+        <v>8996851102114.2598</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" ref="V32:V40" si="17">$O$17*1000/R32</f>
+        <v>33014196104324.859</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0.2</v>
-      </c>
-      <c r="B32">
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="E32">
-        <v>0.2</v>
-      </c>
-      <c r="F32">
-        <v>0.69289999999999996</v>
-      </c>
-      <c r="I32">
-        <v>0.2</v>
-      </c>
-      <c r="J32">
-        <v>0.28089999999999998</v>
-      </c>
-      <c r="N32">
-        <v>0.2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ref="O32:O39" si="1">F21</f>
-        <v>1.4232</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ref="P32:P39" si="2">F32</f>
-        <v>0.69289999999999996</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ref="Q32:Q39" si="3">F43</f>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="R32">
-        <f t="shared" ref="R32:R39" si="4">F54</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.3</v>
       </c>
@@ -4648,26 +10074,42 @@
         <v>0.40239999999999998</v>
       </c>
       <c r="N33">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>1.8467</v>
+        <f>F21</f>
+        <v>1.4232</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
-        <v>0.87939999999999996</v>
+        <f>F32</f>
+        <v>0.69289999999999996</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>0.35</v>
+        <f>F43</f>
+        <v>0.29099999999999998</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
-        <v>8.1900000000000001E-2</v>
+        <f>F54</f>
+        <v>0.05</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ref="S33:S40" si="18">$O$17*1000/O33</f>
+        <v>1080987590262.4639</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="15"/>
+        <v>2220322612875.6509</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="16"/>
+        <v>5286809410520.751</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="17"/>
+        <v>30769230769230.77</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.4</v>
       </c>
@@ -4687,26 +10129,42 @@
         <v>0.42670000000000002</v>
       </c>
       <c r="N34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>1.7499</v>
+        <f>F22</f>
+        <v>1.8467</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
-        <v>0.99619999999999997</v>
+        <f>F33</f>
+        <v>0.87939999999999996</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>0.3826</v>
+        <f>F44</f>
+        <v>0.35</v>
       </c>
       <c r="R34">
-        <f t="shared" si="4"/>
-        <v>8.2699999999999996E-2</v>
+        <f>F55</f>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="18"/>
+        <v>833086878465.12085</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="15"/>
+        <v>1749444551354.9451</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="16"/>
+        <v>4395604395604.396</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="17"/>
+        <v>18784634169249.555</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -4726,26 +10184,42 @@
         <v>0.43230000000000002</v>
       </c>
       <c r="N35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
-        <v>1.9470000000000001</v>
+        <f>F23</f>
+        <v>1.7499</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
-        <v>0.97689999999999999</v>
+        <f>F34</f>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
-        <v>0.38579999999999998</v>
+        <f>F45</f>
+        <v>0.3826</v>
       </c>
       <c r="R35">
-        <f t="shared" si="4"/>
-        <v>0.1013</v>
+        <f>F56</f>
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="18"/>
+        <v>879171117470.44897</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="15"/>
+        <v>1544329992432.7832</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="16"/>
+        <v>4021070408942.8608</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="17"/>
+        <v>18602920658543.395</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.6</v>
       </c>
@@ -4765,26 +10239,42 @@
         <v>0.4783</v>
       </c>
       <c r="N36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>2.0891999999999999</v>
+        <f>F24</f>
+        <v>1.9470000000000001</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
-        <v>1.0102</v>
+        <f>F35</f>
+        <v>0.97689999999999999</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
-        <v>0.433</v>
+        <f>F46</f>
+        <v>0.38579999999999998</v>
       </c>
       <c r="R36">
-        <f t="shared" si="4"/>
-        <v>0.1153</v>
+        <f>F57</f>
+        <v>0.1013</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="18"/>
+        <v>790170281695.70544</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="15"/>
+        <v>1574840350559.4622</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="16"/>
+        <v>3987717829086.4146</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="17"/>
+        <v>15187182018376.49</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.7</v>
       </c>
@@ -4804,26 +10294,42 @@
         <v>0.49509999999999998</v>
       </c>
       <c r="N37">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>2.1818</v>
+        <f>F25</f>
+        <v>2.0891999999999999</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
-        <v>1.1172</v>
+        <f>F36</f>
+        <v>1.0102</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
-        <v>0.432</v>
+        <f>F47</f>
+        <v>0.433</v>
       </c>
       <c r="R37">
-        <f t="shared" si="4"/>
+        <f>F58</f>
         <v>0.1153</v>
       </c>
+      <c r="S37" s="1">
+        <f t="shared" si="18"/>
+        <v>736387870219.00183</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="15"/>
+        <v>1522927676164.6592</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="16"/>
+        <v>3553028957186.0015</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="17"/>
+        <v>13343118286743.613</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.8</v>
       </c>
@@ -4843,26 +10349,45 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="N38">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
-        <v>2.1859000000000002</v>
+        <f>F26</f>
+        <v>2.1818</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
-        <v>1.0952</v>
+        <f>F37</f>
+        <v>1.1172</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
-        <v>0.4173</v>
+        <f>F48</f>
+        <v>0.432</v>
       </c>
       <c r="R38">
-        <f t="shared" si="4"/>
-        <v>0.1094</v>
+        <f>F59</f>
+        <v>0.1153</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="18"/>
+        <v>705134081245.54895</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="15"/>
+        <v>1377069046241.9788</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="16"/>
+        <v>3561253561253.5615</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="17"/>
+        <v>13343118286743.613</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -4882,26 +10407,106 @@
         <v>0.46679999999999999</v>
       </c>
       <c r="N39">
+        <v>0.8</v>
+      </c>
+      <c r="O39">
+        <f>F27</f>
+        <v>2.1859000000000002</v>
+      </c>
+      <c r="P39">
+        <f>F38</f>
+        <v>1.0952</v>
+      </c>
+      <c r="Q39">
+        <f>F49</f>
+        <v>0.4173</v>
+      </c>
+      <c r="R39">
+        <f>F60</f>
+        <v>0.1094</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="18"/>
+        <v>703811491130.2157</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="15"/>
+        <v>1404731134460.8643</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="16"/>
+        <v>3686703902376.0811</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="17"/>
+        <v>14062719729995.783</v>
+      </c>
+      <c r="AB39">
+        <v>0.1</v>
+      </c>
+      <c r="AC39">
+        <v>0.3</v>
+      </c>
+      <c r="AD39">
+        <v>0.5</v>
+      </c>
+      <c r="AE39">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N40">
         <v>0.9</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
+      <c r="O40">
+        <f>F28</f>
         <v>2.0615999999999999</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
+      <c r="P40">
+        <f>F39</f>
         <v>1.0846</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="3"/>
+      <c r="Q40">
+        <f>F50</f>
         <v>0.4088</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="4"/>
+      <c r="R40">
+        <f>F61</f>
         <v>0.10059999999999999</v>
       </c>
+      <c r="S40" s="1">
+        <f t="shared" si="18"/>
+        <v>746246380705.05371</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="15"/>
+        <v>1418459836309.7349</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="16"/>
+        <v>3763359927743.4897</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="17"/>
+        <v>15292858235204.162</v>
+      </c>
+      <c r="AA40">
+        <v>827770714134.35059</v>
+      </c>
+      <c r="AB40">
+        <v>716129748387.81299</v>
+      </c>
+      <c r="AC40">
+        <v>402949591006.16516</v>
+      </c>
+      <c r="AD40">
+        <v>342657031150.95074</v>
+      </c>
+      <c r="AE40">
+        <v>332892251100.625</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -4930,22 +10535,41 @@
         <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" t="s">
-        <v>7</v>
-      </c>
-      <c r="P41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="O41" s="1">
+        <f>O43/($J$17/1000000)</f>
+        <v>3764833443768.4478</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" ref="P41:R41" si="19">P43/($J$17/1000000)</f>
+        <v>2948363540300.5918</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="19"/>
+        <v>1897009099573.2488</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="19"/>
+        <v>906348792018.32996</v>
+      </c>
+      <c r="AA41">
+        <v>648254173719.67212</v>
+      </c>
+      <c r="AB41">
+        <v>1444158019770.5234</v>
+      </c>
+      <c r="AC41">
+        <v>866397217132.13855</v>
+      </c>
+      <c r="AD41">
+        <v>698411811540.55688</v>
+      </c>
+      <c r="AE41">
+        <v>649496153359.03174</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.1</v>
       </c>
@@ -4964,144 +10588,189 @@
       <c r="J42">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42">
+        <f>O43/(MAX(O45:O53)/1000)/10^12</f>
+        <v>1.5256461111280628</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:R42" si="20">P43/(MAX(P45:P53)/1000)/10^12</f>
+        <v>2.4334867241131768</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="20"/>
+        <v>3.9032920365035868</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="20"/>
+        <v>7.9138968027856915</v>
+      </c>
+      <c r="AA42">
+        <v>417093770687.85101</v>
+      </c>
+      <c r="AB42">
+        <v>3289419581914.7715</v>
+      </c>
+      <c r="AC42">
+        <v>2056766762649.1157</v>
+      </c>
+      <c r="AD42">
+        <v>1844899314619.9048</v>
+      </c>
+      <c r="AE42">
+        <v>1814223512336.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.2</v>
+      </c>
+      <c r="B43">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I43">
+        <v>0.2</v>
+      </c>
+      <c r="J43">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="N43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="1">
+        <f>2/(2*$D$11)*10^12</f>
+        <v>1538461538.4615386</v>
+      </c>
+      <c r="P43" s="1">
+        <f>2/(2*$D$8)*10^12</f>
+        <v>1204819277.1084337</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>2/(2*$D$5)*10^12</f>
+        <v>775193798.44961238</v>
+      </c>
+      <c r="R43" s="1">
+        <f>2/(2*$D$2)*10^12</f>
+        <v>370370370.37037033</v>
+      </c>
+      <c r="AA43">
+        <v>199278134884.19547</v>
+      </c>
+      <c r="AB43">
+        <v>15524334394162.852</v>
+      </c>
+      <c r="AC43">
+        <v>8561277342579.5137</v>
+      </c>
+      <c r="AD43">
+        <v>7665478517496.4561</v>
+      </c>
+      <c r="AE43">
+        <v>7057163020465.7734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.3</v>
+      </c>
+      <c r="B44">
+        <v>0.748</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+      <c r="F44">
+        <v>0.35</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.1394</v>
+      </c>
+      <c r="N44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.4</v>
+      </c>
+      <c r="B45">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.4</v>
+      </c>
+      <c r="F45">
+        <v>0.3826</v>
+      </c>
+      <c r="I45">
+        <v>0.4</v>
+      </c>
+      <c r="J45">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="N45">
         <v>0.1</v>
       </c>
-      <c r="O42">
+      <c r="O45">
         <f>J20</f>
         <v>0.35149999999999998</v>
       </c>
-      <c r="P42">
+      <c r="P45">
         <f>J31</f>
         <v>0.15629999999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q45">
         <f>J42</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="R42">
+      <c r="R45">
         <f>J53</f>
         <v>1.6899999999999998E-2</v>
       </c>
+      <c r="S45" s="1">
+        <f>$O$17*1000/O45</f>
+        <v>4376846482109.6406</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" ref="T45:T53" si="21">$O$17*1000/P45</f>
+        <v>9843004084846.6953</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" ref="U45:U53" si="22">$O$17*1000/Q45</f>
+        <v>17482517482517.484</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" ref="V45:V53" si="23">$O$17*1000/R45</f>
+        <v>91033227127901.703</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0.2</v>
-      </c>
-      <c r="B43">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="E43">
-        <v>0.2</v>
-      </c>
-      <c r="F43">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I43">
-        <v>0.2</v>
-      </c>
-      <c r="J43">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="N43">
-        <v>0.2</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ref="O43:O50" si="5">J21</f>
-        <v>0.58409999999999995</v>
-      </c>
-      <c r="P43">
-        <f t="shared" ref="P43:P50" si="6">J32</f>
-        <v>0.28089999999999998</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" ref="Q43:Q50" si="7">J43</f>
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="R43">
-        <f t="shared" ref="R43:R50" si="8">J54</f>
-        <v>2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>0.3</v>
-      </c>
-      <c r="B44">
-        <v>0.748</v>
-      </c>
-      <c r="E44">
-        <v>0.3</v>
-      </c>
-      <c r="F44">
-        <v>0.35</v>
-      </c>
-      <c r="I44">
-        <v>0.3</v>
-      </c>
-      <c r="J44">
-        <v>0.1394</v>
-      </c>
-      <c r="N44">
-        <v>0.3</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="5"/>
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="6"/>
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="7"/>
-        <v>0.1394</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="8"/>
-        <v>3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0.4</v>
-      </c>
-      <c r="B45">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="E45">
-        <v>0.4</v>
-      </c>
-      <c r="F45">
-        <v>0.3826</v>
-      </c>
-      <c r="I45">
-        <v>0.4</v>
-      </c>
-      <c r="J45">
-        <v>0.16450000000000001</v>
-      </c>
-      <c r="N45">
-        <v>0.4</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="5"/>
-        <v>0.80410000000000004</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="6"/>
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="7"/>
-        <v>0.16450000000000001</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="8"/>
-        <v>3.3399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.5</v>
       </c>
@@ -5121,26 +10790,42 @@
         <v>0.15870000000000001</v>
       </c>
       <c r="N46">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
-        <v>0.8579</v>
+        <f>J21</f>
+        <v>0.58409999999999995</v>
       </c>
       <c r="P46">
-        <f t="shared" si="6"/>
-        <v>0.43230000000000002</v>
+        <f>J32</f>
+        <v>0.28089999999999998</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="7"/>
-        <v>0.15870000000000001</v>
+        <f>J43</f>
+        <v>0.11749999999999999</v>
       </c>
       <c r="R46">
-        <f t="shared" si="8"/>
-        <v>4.19E-2</v>
+        <f>J54</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" ref="S46:S53" si="24">$O$17*1000/O46</f>
+        <v>2633900938985.6851</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="21"/>
+        <v>5476901169318.4004</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="22"/>
+        <v>13093289689034.371</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="23"/>
+        <v>58055152394775.039</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.6</v>
       </c>
@@ -5160,26 +10845,45 @@
         <v>0.1704</v>
       </c>
       <c r="N47">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
-        <v>0.91569999999999996</v>
+        <f>J22</f>
+        <v>0.69579999999999997</v>
       </c>
       <c r="P47">
-        <f t="shared" si="6"/>
-        <v>0.4783</v>
+        <f>J33</f>
+        <v>0.40239999999999998</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
-        <v>0.1704</v>
+        <f>J44</f>
+        <v>0.1394</v>
       </c>
       <c r="R47">
-        <f t="shared" si="8"/>
-        <v>4.5699999999999998E-2</v>
+        <f>J55</f>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="24"/>
+        <v>2211068609458.9517</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="21"/>
+        <v>3823214558801.0405</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="22"/>
+        <v>11036309458117.207</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="23"/>
+        <v>48379293662312.531</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.7</v>
       </c>
@@ -5199,26 +10903,51 @@
         <v>0.19089999999999999</v>
       </c>
       <c r="N48">
+        <v>0.4</v>
+      </c>
+      <c r="O48">
+        <f>J23</f>
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="P48">
+        <f>J34</f>
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="Q48">
+        <f>J45</f>
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="R48">
+        <f>J56</f>
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="24"/>
+        <v>1913271407115.4563</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="21"/>
+        <v>3605487552054.2266</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="22"/>
+        <v>9352349777881.6934</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="23"/>
+        <v>46061722708429.297</v>
+      </c>
+      <c r="AA48">
+        <v>0.1</v>
+      </c>
+      <c r="AB48">
+        <v>0.4</v>
+      </c>
+      <c r="AC48">
         <v>0.7</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="5"/>
-        <v>1.0044</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="6"/>
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="7"/>
-        <v>0.19089999999999999</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="8"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.8</v>
       </c>
@@ -5238,26 +10967,54 @@
         <v>0.1986</v>
       </c>
       <c r="N49">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
-        <v>1.0084</v>
+        <f>J24</f>
+        <v>0.8579</v>
       </c>
       <c r="P49">
-        <f t="shared" si="6"/>
-        <v>0.47899999999999998</v>
+        <f>J35</f>
+        <v>0.43230000000000002</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="7"/>
-        <v>0.1986</v>
+        <f>J46</f>
+        <v>0.15870000000000001</v>
       </c>
       <c r="R49">
-        <f t="shared" si="8"/>
-        <v>4.2799999999999998E-2</v>
+        <f>J57</f>
+        <v>4.19E-2</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="24"/>
+        <v>1793287724048.8853</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="21"/>
+        <v>3558782184736.3833</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="22"/>
+        <v>9694149580728.0313</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="23"/>
+        <v>36717459151826.695</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+      <c r="AA49">
+        <v>4376846482109.6406</v>
+      </c>
+      <c r="AB49">
+        <v>1913271407115.4563</v>
+      </c>
+      <c r="AC49">
+        <v>1531721961829.4888</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.9</v>
       </c>
@@ -5277,26 +11034,103 @@
         <v>0.1767</v>
       </c>
       <c r="N50">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
-        <v>0.92789999999999995</v>
+        <f>J25</f>
+        <v>0.91569999999999996</v>
       </c>
       <c r="P50">
-        <f t="shared" si="6"/>
-        <v>0.46679999999999999</v>
+        <f>J36</f>
+        <v>0.4783</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="7"/>
-        <v>0.1767</v>
+        <f>J47</f>
+        <v>0.1704</v>
       </c>
       <c r="R50">
-        <f t="shared" si="8"/>
-        <v>4.4699999999999997E-2</v>
+        <f>J58</f>
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="24"/>
+        <v>1680093413193.7737</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="21"/>
+        <v>3216520046961.1929</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="22"/>
+        <v>9028530155290.7188</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="23"/>
+        <v>33664366268305.004</v>
+      </c>
+      <c r="Z50">
+        <v>32</v>
+      </c>
+      <c r="AA50">
+        <v>1451378809869.376</v>
+      </c>
+      <c r="AB50">
+        <v>879171117470.44897</v>
+      </c>
+      <c r="AC50">
+        <v>705134081245.54895</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>0.7</v>
+      </c>
+      <c r="O51">
+        <f>J26</f>
+        <v>1.0044</v>
+      </c>
+      <c r="P51">
+        <f>J37</f>
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="Q51">
+        <f>J48</f>
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="R51">
+        <f>J59</f>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="24"/>
+        <v>1531721961829.4888</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="21"/>
+        <v>3107375355406.0566</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="22"/>
+        <v>8058991820123.3037</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="23"/>
+        <v>32873109796186.723</v>
+      </c>
+      <c r="Z51">
+        <v>64</v>
+      </c>
+      <c r="AA51">
+        <v>716129748387.81299</v>
+      </c>
+      <c r="AB51">
+        <v>373258980144.48859</v>
+      </c>
+      <c r="AC51">
+        <v>332892251100.625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -5324,8 +11158,43 @@
       <c r="K52" t="s">
         <v>11</v>
       </c>
+      <c r="N52">
+        <v>0.8</v>
+      </c>
+      <c r="O52">
+        <f>J27</f>
+        <v>1.0084</v>
+      </c>
+      <c r="P52">
+        <f>J38</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Q52">
+        <f>J49</f>
+        <v>0.1986</v>
+      </c>
+      <c r="R52">
+        <f>J60</f>
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="24"/>
+        <v>1525646111128.063</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="21"/>
+        <v>3211819495744.3394</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="22"/>
+        <v>7746533426291.7354</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="23"/>
+        <v>35945363048166.789</v>
+      </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.1</v>
       </c>
@@ -5344,8 +11213,43 @@
       <c r="J53">
         <v>1.6899999999999998E-2</v>
       </c>
+      <c r="N53">
+        <v>0.9</v>
+      </c>
+      <c r="O53">
+        <f>J28</f>
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="P53">
+        <f>J39</f>
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="Q53">
+        <f>J50</f>
+        <v>0.1767</v>
+      </c>
+      <c r="R53">
+        <f>J61</f>
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="24"/>
+        <v>1658003597867.8076</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="21"/>
+        <v>3295761650517.4351</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="22"/>
+        <v>8706630098820.2529</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="23"/>
+        <v>34417484081913.617</v>
+      </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.2</v>
       </c>
@@ -5364,8 +11268,11 @@
       <c r="J54">
         <v>2.6499999999999999E-2</v>
       </c>
+      <c r="Z54" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.3</v>
       </c>
@@ -5384,8 +11291,20 @@
       <c r="J55">
         <v>3.1800000000000002E-2</v>
       </c>
+      <c r="AA55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.4</v>
       </c>
@@ -5404,8 +11323,23 @@
       <c r="J56">
         <v>3.3399999999999999E-2</v>
       </c>
+      <c r="Z56">
+        <v>64</v>
+      </c>
+      <c r="AA56">
+        <v>827770714134.35059</v>
+      </c>
+      <c r="AB56">
+        <v>648254173719.67212</v>
+      </c>
+      <c r="AC56">
+        <v>417093770687.85101</v>
+      </c>
+      <c r="AD56">
+        <v>199278134884.19547</v>
+      </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.5</v>
       </c>
@@ -5424,8 +11358,23 @@
       <c r="J57">
         <v>4.19E-2</v>
       </c>
+      <c r="Z57">
+        <v>32</v>
+      </c>
+      <c r="AA57">
+        <v>1733907603531.6233</v>
+      </c>
+      <c r="AB57">
+        <v>1357879448548.8616</v>
+      </c>
+      <c r="AC57">
+        <v>873674373872.52319</v>
+      </c>
+      <c r="AD57">
+        <v>417422200850.20551</v>
+      </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.6</v>
       </c>
@@ -5444,8 +11393,23 @@
       <c r="J58">
         <v>4.5699999999999998E-2</v>
       </c>
+      <c r="Z58">
+        <v>16</v>
+      </c>
+      <c r="AA58">
+        <v>3764833443768.4478</v>
+      </c>
+      <c r="AB58">
+        <v>2948363540300.5918</v>
+      </c>
+      <c r="AC58">
+        <v>1897009099573.2488</v>
+      </c>
+      <c r="AD58">
+        <v>906348792018.32996</v>
+      </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.7</v>
       </c>
@@ -5465,7 +11429,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.8</v>
       </c>
@@ -5485,7 +11449,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.9</v>
       </c>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1DF56-53B1-4DBD-AB9C-254369305699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71B6EA-3377-4A74-AFAF-BAE8C8F868D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>16 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delaySize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,6 +939,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Delay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> vs MAC Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39156933508311464"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$62:$P$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$62:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1E8-4529-95D8-7158FB7AEEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1026270271"/>
+        <c:axId val="1026271231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1026270271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>MAC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> SIZE</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026271231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026271231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Delay</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026270271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5644,6 +6106,457 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Delay vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> VDD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40997222222222229"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$57:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$57:$Q$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB85-4C48-A14E-C007551A949E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10222544"/>
+        <c:axId val="10226864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10222544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>VDD</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10226864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10226864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Delay</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10222544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5844,6 +6757,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7909,6 +8902,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8720,6 +10745,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3102E944-11D6-9005-A8F1-FC8D946ADAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42946FDF-B2EB-A71D-30C9-A65E3D7F574D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8986,10 +11083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE61"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z52" sqref="Z52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61:Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9170,7 +11267,7 @@
       </c>
       <c r="O15" s="1">
         <f>O17/($B$17/1000000)</f>
-        <v>827770714134.35059</v>
+        <v>551847142756.23364</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ref="P15:R15" si="1">P17/($B$17/1000000)</f>
@@ -9191,7 +11288,7 @@
       </c>
       <c r="O16">
         <f>O17/(MAX(O19:O27)/1000)/10^12</f>
-        <v>0.33200861894374778</v>
+        <v>0.22133907929583188</v>
       </c>
       <c r="P16">
         <f t="shared" ref="P16" si="2">P17/(MAX(P19:P27)/1000)/10^12</f>
@@ -9235,8 +11332,8 @@
         <v>13</v>
       </c>
       <c r="O17" s="1">
-        <f>2/(2*$D$11)*10^12</f>
-        <v>1538461538.4615386</v>
+        <f>2/(3*$D$11)*10^12</f>
+        <v>1025641025.6410257</v>
       </c>
       <c r="P17" s="1">
         <f>2/(2*$D$8)*10^12</f>
@@ -9350,19 +11447,19 @@
       </c>
       <c r="S19" s="1">
         <f>$O$17*1000/O19</f>
-        <v>716129748387.81299</v>
+        <v>477419832258.54193</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ref="T19:V27" si="9">$O$17*1000/P19</f>
-        <v>1444158019770.5234</v>
+        <v>962772013180.34888</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="9"/>
-        <v>3289419581914.7715</v>
+        <v>2192946387943.1807</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="9"/>
-        <v>15524334394162.852</v>
+        <v>10349556262775.234</v>
       </c>
       <c r="X19">
         <v>1.8</v>
@@ -9417,19 +11514,19 @@
       </c>
       <c r="S20" s="1">
         <f t="shared" ref="S20:S27" si="10">$O$17*1000/O20</f>
-        <v>521247344896.33704</v>
+        <v>347498229930.8913</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="9"/>
-        <v>895078856447.25305</v>
+        <v>596719237631.50195</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="9"/>
-        <v>2537459242060.9248</v>
+        <v>1691639494707.283</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="9"/>
-        <v>10161568946245.301</v>
+        <v>6774379297496.8662</v>
       </c>
       <c r="X20">
         <v>1.5</v>
@@ -9484,19 +11581,19 @@
       </c>
       <c r="S21" s="1">
         <f t="shared" si="10"/>
-        <v>402949591006.16516</v>
+        <v>268633060670.77673</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="9"/>
-        <v>866397217132.13855</v>
+        <v>577598144754.75903</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="9"/>
-        <v>2056766762649.1157</v>
+        <v>1371177841766.0771</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="9"/>
-        <v>8561277342579.5137</v>
+        <v>5707518228386.3418</v>
       </c>
       <c r="X21">
         <v>1.2</v>
@@ -9551,19 +11648,19 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" si="10"/>
-        <v>373258980144.48859</v>
+        <v>248839320096.32571</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="9"/>
-        <v>747152415356.97083</v>
+        <v>498101610237.98053</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="9"/>
-        <v>1949640778686.5271</v>
+        <v>1299760519124.3513</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="9"/>
-        <v>7504690431519.7012</v>
+        <v>5003126954346.4668</v>
       </c>
       <c r="X22">
         <v>0.9</v>
@@ -9618,19 +11715,19 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="10"/>
-        <v>342657031150.95074</v>
+        <v>228438020767.30048</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="9"/>
-        <v>698411811540.55688</v>
+        <v>465607874360.37122</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="9"/>
-        <v>1844899314619.9048</v>
+        <v>1229932876413.2698</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="9"/>
-        <v>7665478517496.4561</v>
+        <v>5110319011664.3037</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
@@ -9673,19 +11770,19 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" si="10"/>
-        <v>343621356754.56506</v>
+        <v>229080904503.04333</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>711295731869.96094</v>
+        <v>474197154579.97394</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>1799159792376.9602</v>
+        <v>1199439861584.6399</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>7162297665090.9619</v>
+        <v>4774865110060.6406</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
@@ -9728,19 +11825,19 @@
       </c>
       <c r="S25" s="1">
         <f t="shared" si="10"/>
-        <v>332892251100.625</v>
+        <v>221928167400.41666</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" si="9"/>
-        <v>649496153359.03174</v>
+        <v>432997435572.68781</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="9"/>
-        <v>1814223512336.72</v>
+        <v>1209482341557.8132</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="9"/>
-        <v>7057163020465.7734</v>
+        <v>4704775346977.1816</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
@@ -9783,19 +11880,19 @@
       </c>
       <c r="S26" s="1">
         <f t="shared" si="10"/>
-        <v>332008618943.7478</v>
+        <v>221339079295.83185</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="9"/>
-        <v>651641974866.16907</v>
+        <v>434427983244.11267</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="9"/>
-        <v>1744485246016.032</v>
+        <v>1162990164010.6877</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="9"/>
-        <v>7202535292422.9326</v>
+        <v>4801690194948.6221</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
@@ -9838,19 +11935,19 @@
       </c>
       <c r="S27" s="1">
         <f t="shared" si="10"/>
-        <v>336253696689.078</v>
+        <v>224169131126.05197</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="9"/>
-        <v>685527822146.66187</v>
+        <v>457018548097.77454</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="9"/>
-        <v>1758643733952.376</v>
+        <v>1172429155968.2505</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="9"/>
-        <v>7512019230769.2314</v>
+        <v>5008012820512.8203</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
@@ -9893,6 +11990,24 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>2.6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>2.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>1.8</v>
+      </c>
       <c r="N29" t="s">
         <v>14</v>
       </c>
@@ -10022,36 +12137,36 @@
         <v>0.1</v>
       </c>
       <c r="O32">
-        <f>F20</f>
+        <f t="shared" ref="O32:O40" si="15">F20</f>
         <v>1.06</v>
       </c>
       <c r="P32">
-        <f>F31</f>
+        <f t="shared" ref="P32:P40" si="16">F31</f>
         <v>0.4536</v>
       </c>
       <c r="Q32">
-        <f>F42</f>
+        <f t="shared" ref="Q32:Q40" si="17">F42</f>
         <v>0.17100000000000001</v>
       </c>
       <c r="R32">
-        <f>F53</f>
+        <f t="shared" ref="R32:R40" si="18">F53</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="S32" s="1">
         <f>$O$17*1000/O32</f>
-        <v>1451378809869.376</v>
+        <v>967585873246.25061</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" ref="T32:T40" si="15">$O$17*1000/P32</f>
-        <v>3391670058336.7251</v>
+        <f t="shared" ref="T32:T40" si="19">$O$17*1000/P32</f>
+        <v>2261113372224.4834</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ref="U32:U40" si="16">$O$17*1000/Q32</f>
-        <v>8996851102114.2598</v>
+        <f t="shared" ref="U32:U40" si="20">$O$17*1000/Q32</f>
+        <v>5997900734742.8398</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" ref="V32:V40" si="17">$O$17*1000/R32</f>
-        <v>33014196104324.859</v>
+        <f t="shared" ref="V32:V40" si="21">$O$17*1000/R32</f>
+        <v>22009464069549.906</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
@@ -10077,36 +12192,36 @@
         <v>0.2</v>
       </c>
       <c r="O33">
-        <f>F21</f>
+        <f t="shared" si="15"/>
         <v>1.4232</v>
       </c>
       <c r="P33">
-        <f>F32</f>
+        <f t="shared" si="16"/>
         <v>0.69289999999999996</v>
       </c>
       <c r="Q33">
-        <f>F43</f>
+        <f t="shared" si="17"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="R33">
-        <f>F54</f>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" ref="S33:S40" si="18">$O$17*1000/O33</f>
-        <v>1080987590262.4639</v>
+        <f t="shared" ref="S33:S40" si="22">$O$17*1000/O33</f>
+        <v>720658393508.3092</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="15"/>
-        <v>2220322612875.6509</v>
+        <f t="shared" si="19"/>
+        <v>1480215075250.4341</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="16"/>
-        <v>5286809410520.751</v>
+        <f t="shared" si="20"/>
+        <v>3524539607013.834</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="17"/>
-        <v>30769230769230.77</v>
+        <f t="shared" si="21"/>
+        <v>20512820512820.512</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -10132,36 +12247,36 @@
         <v>0.3</v>
       </c>
       <c r="O34">
-        <f>F22</f>
+        <f t="shared" si="15"/>
         <v>1.8467</v>
       </c>
       <c r="P34">
-        <f>F33</f>
+        <f t="shared" si="16"/>
         <v>0.87939999999999996</v>
       </c>
       <c r="Q34">
-        <f>F44</f>
+        <f t="shared" si="17"/>
         <v>0.35</v>
       </c>
       <c r="R34">
-        <f>F55</f>
+        <f t="shared" si="18"/>
         <v>8.1900000000000001E-2</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="18"/>
-        <v>833086878465.12085</v>
+        <f t="shared" si="22"/>
+        <v>555391252310.08044</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="15"/>
-        <v>1749444551354.9451</v>
+        <f t="shared" si="19"/>
+        <v>1166296367569.9631</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="16"/>
-        <v>4395604395604.396</v>
+        <f t="shared" si="20"/>
+        <v>2930402930402.9307</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="17"/>
-        <v>18784634169249.555</v>
+        <f t="shared" si="21"/>
+        <v>12523089446166.369</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -10187,36 +12302,36 @@
         <v>0.4</v>
       </c>
       <c r="O35">
-        <f>F23</f>
+        <f t="shared" si="15"/>
         <v>1.7499</v>
       </c>
       <c r="P35">
-        <f>F34</f>
+        <f t="shared" si="16"/>
         <v>0.99619999999999997</v>
       </c>
       <c r="Q35">
-        <f>F45</f>
+        <f t="shared" si="17"/>
         <v>0.3826</v>
       </c>
       <c r="R35">
-        <f>F56</f>
+        <f t="shared" si="18"/>
         <v>8.2699999999999996E-2</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="18"/>
-        <v>879171117470.44897</v>
+        <f t="shared" si="22"/>
+        <v>586114078313.63257</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="15"/>
-        <v>1544329992432.7832</v>
+        <f t="shared" si="19"/>
+        <v>1029553328288.5221</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="16"/>
-        <v>4021070408942.8608</v>
+        <f t="shared" si="20"/>
+        <v>2680713605961.9072</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="17"/>
-        <v>18602920658543.395</v>
+        <f t="shared" si="21"/>
+        <v>12401947105695.596</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -10242,36 +12357,36 @@
         <v>0.5</v>
       </c>
       <c r="O36">
-        <f>F24</f>
+        <f t="shared" si="15"/>
         <v>1.9470000000000001</v>
       </c>
       <c r="P36">
-        <f>F35</f>
+        <f t="shared" si="16"/>
         <v>0.97689999999999999</v>
       </c>
       <c r="Q36">
-        <f>F46</f>
+        <f t="shared" si="17"/>
         <v>0.38579999999999998</v>
       </c>
       <c r="R36">
-        <f>F57</f>
+        <f t="shared" si="18"/>
         <v>0.1013</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="18"/>
-        <v>790170281695.70544</v>
+        <f t="shared" si="22"/>
+        <v>526780187797.1369</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="15"/>
-        <v>1574840350559.4622</v>
+        <f t="shared" si="19"/>
+        <v>1049893567039.6414</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="16"/>
-        <v>3987717829086.4146</v>
+        <f t="shared" si="20"/>
+        <v>2658478552724.2759</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="17"/>
-        <v>15187182018376.49</v>
+        <f t="shared" si="21"/>
+        <v>10124788012250.994</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -10297,36 +12412,36 @@
         <v>0.6</v>
       </c>
       <c r="O37">
-        <f>F25</f>
+        <f t="shared" si="15"/>
         <v>2.0891999999999999</v>
       </c>
       <c r="P37">
-        <f>F36</f>
+        <f t="shared" si="16"/>
         <v>1.0102</v>
       </c>
       <c r="Q37">
-        <f>F47</f>
+        <f t="shared" si="17"/>
         <v>0.433</v>
       </c>
       <c r="R37">
-        <f>F58</f>
+        <f t="shared" si="18"/>
         <v>0.1153</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="18"/>
-        <v>736387870219.00183</v>
+        <f t="shared" si="22"/>
+        <v>490925246812.66785</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="15"/>
-        <v>1522927676164.6592</v>
+        <f t="shared" si="19"/>
+        <v>1015285117443.106</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="16"/>
-        <v>3553028957186.0015</v>
+        <f t="shared" si="20"/>
+        <v>2368685971457.334</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="17"/>
-        <v>13343118286743.613</v>
+        <f t="shared" si="21"/>
+        <v>8895412191162.4082</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -10352,36 +12467,36 @@
         <v>0.7</v>
       </c>
       <c r="O38">
-        <f>F26</f>
+        <f t="shared" si="15"/>
         <v>2.1818</v>
       </c>
       <c r="P38">
-        <f>F37</f>
+        <f t="shared" si="16"/>
         <v>1.1172</v>
       </c>
       <c r="Q38">
-        <f>F48</f>
+        <f t="shared" si="17"/>
         <v>0.432</v>
       </c>
       <c r="R38">
-        <f>F59</f>
+        <f t="shared" si="18"/>
         <v>0.1153</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="18"/>
-        <v>705134081245.54895</v>
+        <f t="shared" si="22"/>
+        <v>470089387497.03259</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="15"/>
-        <v>1377069046241.9788</v>
+        <f t="shared" si="19"/>
+        <v>918046030827.98572</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="16"/>
-        <v>3561253561253.5615</v>
+        <f t="shared" si="20"/>
+        <v>2374169040835.7075</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="17"/>
-        <v>13343118286743.613</v>
+        <f t="shared" si="21"/>
+        <v>8895412191162.4082</v>
       </c>
       <c r="AB38" t="s">
         <v>14</v>
@@ -10410,36 +12525,36 @@
         <v>0.8</v>
       </c>
       <c r="O39">
-        <f>F27</f>
+        <f t="shared" si="15"/>
         <v>2.1859000000000002</v>
       </c>
       <c r="P39">
-        <f>F38</f>
+        <f t="shared" si="16"/>
         <v>1.0952</v>
       </c>
       <c r="Q39">
-        <f>F49</f>
+        <f t="shared" si="17"/>
         <v>0.4173</v>
       </c>
       <c r="R39">
-        <f>F60</f>
+        <f t="shared" si="18"/>
         <v>0.1094</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="18"/>
-        <v>703811491130.2157</v>
+        <f t="shared" si="22"/>
+        <v>469207660753.47711</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="15"/>
-        <v>1404731134460.8643</v>
+        <f t="shared" si="19"/>
+        <v>936487422973.90955</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="16"/>
-        <v>3686703902376.0811</v>
+        <f t="shared" si="20"/>
+        <v>2457802601584.0537</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="17"/>
-        <v>14062719729995.783</v>
+        <f t="shared" si="21"/>
+        <v>9375146486663.8535</v>
       </c>
       <c r="AB39">
         <v>0.1</v>
@@ -10455,40 +12570,46 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>3.3</v>
+      </c>
       <c r="N40">
         <v>0.9</v>
       </c>
       <c r="O40">
-        <f>F28</f>
+        <f t="shared" si="15"/>
         <v>2.0615999999999999</v>
       </c>
       <c r="P40">
-        <f>F39</f>
+        <f t="shared" si="16"/>
         <v>1.0846</v>
       </c>
       <c r="Q40">
-        <f>F50</f>
+        <f t="shared" si="17"/>
         <v>0.4088</v>
       </c>
       <c r="R40">
-        <f>F61</f>
+        <f t="shared" si="18"/>
         <v>0.10059999999999999</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="18"/>
-        <v>746246380705.05371</v>
+        <f t="shared" si="22"/>
+        <v>497497587136.70239</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="15"/>
-        <v>1418459836309.7349</v>
+        <f t="shared" si="19"/>
+        <v>945639890873.15662</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="16"/>
-        <v>3763359927743.4897</v>
+        <f t="shared" si="20"/>
+        <v>2508906618495.6597</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="17"/>
-        <v>15292858235204.162</v>
+        <f t="shared" si="21"/>
+        <v>10195238823469.439</v>
       </c>
       <c r="AA40">
         <v>827770714134.35059</v>
@@ -10542,15 +12663,15 @@
         <v>3764833443768.4478</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" ref="P41:R41" si="19">P43/($J$17/1000000)</f>
+        <f t="shared" ref="P41:R41" si="23">P43/($J$17/1000000)</f>
         <v>2948363540300.5918</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1897009099573.2488</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>906348792018.32996</v>
       </c>
       <c r="AA41">
@@ -10596,15 +12717,15 @@
         <v>1.5256461111280628</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:R42" si="20">P43/(MAX(P45:P53)/1000)/10^12</f>
+        <f t="shared" ref="P42:R42" si="24">P43/(MAX(P45:P53)/1000)/10^12</f>
         <v>2.4334867241131768</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.9032920365035868</v>
       </c>
       <c r="R42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7.9138968027856915</v>
       </c>
       <c r="AA42">
@@ -10738,36 +12859,36 @@
         <v>0.1</v>
       </c>
       <c r="O45">
-        <f>J20</f>
+        <f t="shared" ref="O45:O53" si="25">J20</f>
         <v>0.35149999999999998</v>
       </c>
       <c r="P45">
-        <f>J31</f>
+        <f t="shared" ref="P45:P53" si="26">J31</f>
         <v>0.15629999999999999</v>
       </c>
       <c r="Q45">
-        <f>J42</f>
+        <f t="shared" ref="Q45:Q53" si="27">J42</f>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="R45">
-        <f>J53</f>
+        <f t="shared" ref="R45:R53" si="28">J53</f>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="S45" s="1">
         <f>$O$17*1000/O45</f>
-        <v>4376846482109.6406</v>
+        <v>2917897654739.7603</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" ref="T45:T53" si="21">$O$17*1000/P45</f>
-        <v>9843004084846.6953</v>
+        <f t="shared" ref="T45:T53" si="29">$O$17*1000/P45</f>
+        <v>6562002723231.1299</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" ref="U45:U53" si="22">$O$17*1000/Q45</f>
-        <v>17482517482517.484</v>
+        <f t="shared" ref="U45:U53" si="30">$O$17*1000/Q45</f>
+        <v>11655011655011.656</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" ref="V45:V53" si="23">$O$17*1000/R45</f>
-        <v>91033227127901.703</v>
+        <f t="shared" ref="V45:V53" si="31">$O$17*1000/R45</f>
+        <v>60688818085267.797</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
@@ -10793,36 +12914,36 @@
         <v>0.2</v>
       </c>
       <c r="O46">
-        <f>J21</f>
+        <f t="shared" si="25"/>
         <v>0.58409999999999995</v>
       </c>
       <c r="P46">
-        <f>J32</f>
+        <f t="shared" si="26"/>
         <v>0.28089999999999998</v>
       </c>
       <c r="Q46">
-        <f>J43</f>
+        <f t="shared" si="27"/>
         <v>0.11749999999999999</v>
       </c>
       <c r="R46">
-        <f>J54</f>
+        <f t="shared" si="28"/>
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ref="S46:S53" si="24">$O$17*1000/O46</f>
-        <v>2633900938985.6851</v>
+        <f t="shared" ref="S46:S53" si="32">$O$17*1000/O46</f>
+        <v>1755933959323.79</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="21"/>
-        <v>5476901169318.4004</v>
+        <f t="shared" si="29"/>
+        <v>3651267446212.2666</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="22"/>
-        <v>13093289689034.371</v>
+        <f t="shared" si="30"/>
+        <v>8728859792689.5801</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="23"/>
-        <v>58055152394775.039</v>
+        <f t="shared" si="31"/>
+        <v>38703434929850.023</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
@@ -10848,36 +12969,36 @@
         <v>0.3</v>
       </c>
       <c r="O47">
-        <f>J22</f>
+        <f t="shared" si="25"/>
         <v>0.69579999999999997</v>
       </c>
       <c r="P47">
-        <f>J33</f>
+        <f t="shared" si="26"/>
         <v>0.40239999999999998</v>
       </c>
       <c r="Q47">
-        <f>J44</f>
+        <f t="shared" si="27"/>
         <v>0.1394</v>
       </c>
       <c r="R47">
-        <f>J55</f>
+        <f t="shared" si="28"/>
         <v>3.1800000000000002E-2</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="24"/>
-        <v>2211068609458.9517</v>
+        <f t="shared" si="32"/>
+        <v>1474045739639.301</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="21"/>
-        <v>3823214558801.0405</v>
+        <f t="shared" si="29"/>
+        <v>2548809705867.3599</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="22"/>
-        <v>11036309458117.207</v>
+        <f t="shared" si="30"/>
+        <v>7357539638744.8037</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="23"/>
-        <v>48379293662312.531</v>
+        <f t="shared" si="31"/>
+        <v>32252862441541.684</v>
       </c>
       <c r="Z47" t="s">
         <v>14</v>
@@ -10906,36 +13027,36 @@
         <v>0.4</v>
       </c>
       <c r="O48">
-        <f>J23</f>
+        <f t="shared" si="25"/>
         <v>0.80410000000000004</v>
       </c>
       <c r="P48">
-        <f>J34</f>
+        <f t="shared" si="26"/>
         <v>0.42670000000000002</v>
       </c>
       <c r="Q48">
-        <f>J45</f>
+        <f t="shared" si="27"/>
         <v>0.16450000000000001</v>
       </c>
       <c r="R48">
-        <f>J56</f>
+        <f t="shared" si="28"/>
         <v>3.3399999999999999E-2</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="24"/>
-        <v>1913271407115.4563</v>
+        <f t="shared" si="32"/>
+        <v>1275514271410.3042</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="21"/>
-        <v>3605487552054.2266</v>
+        <f t="shared" si="29"/>
+        <v>2403658368036.1509</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="22"/>
-        <v>9352349777881.6934</v>
+        <f t="shared" si="30"/>
+        <v>6234899851921.1279</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="23"/>
-        <v>46061722708429.297</v>
+        <f t="shared" si="31"/>
+        <v>30707815138952.863</v>
       </c>
       <c r="AA48">
         <v>0.1</v>
@@ -10970,36 +13091,36 @@
         <v>0.5</v>
       </c>
       <c r="O49">
-        <f>J24</f>
+        <f t="shared" si="25"/>
         <v>0.8579</v>
       </c>
       <c r="P49">
-        <f>J35</f>
+        <f t="shared" si="26"/>
         <v>0.43230000000000002</v>
       </c>
       <c r="Q49">
-        <f>J46</f>
+        <f t="shared" si="27"/>
         <v>0.15870000000000001</v>
       </c>
       <c r="R49">
-        <f>J57</f>
+        <f t="shared" si="28"/>
         <v>4.19E-2</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="24"/>
-        <v>1793287724048.8853</v>
+        <f t="shared" si="32"/>
+        <v>1195525149365.9233</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="21"/>
-        <v>3558782184736.3833</v>
+        <f t="shared" si="29"/>
+        <v>2372521456490.9219</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="22"/>
-        <v>9694149580728.0313</v>
+        <f t="shared" si="30"/>
+        <v>6462766387152.0205</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="23"/>
-        <v>36717459151826.695</v>
+        <f t="shared" si="31"/>
+        <v>24478306101217.797</v>
       </c>
       <c r="Z49">
         <v>16</v>
@@ -11037,36 +13158,36 @@
         <v>0.6</v>
       </c>
       <c r="O50">
-        <f>J25</f>
+        <f t="shared" si="25"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="P50">
-        <f>J36</f>
+        <f t="shared" si="26"/>
         <v>0.4783</v>
       </c>
       <c r="Q50">
-        <f>J47</f>
+        <f t="shared" si="27"/>
         <v>0.1704</v>
       </c>
       <c r="R50">
-        <f>J58</f>
+        <f t="shared" si="28"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="24"/>
-        <v>1680093413193.7737</v>
+        <f t="shared" si="32"/>
+        <v>1120062275462.5159</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="21"/>
-        <v>3216520046961.1929</v>
+        <f t="shared" si="29"/>
+        <v>2144346697974.1284</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="22"/>
-        <v>9028530155290.7188</v>
+        <f t="shared" si="30"/>
+        <v>6019020103527.1455</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="23"/>
-        <v>33664366268305.004</v>
+        <f t="shared" si="31"/>
+        <v>22442910845536.668</v>
       </c>
       <c r="Z50">
         <v>32</v>
@@ -11082,40 +13203,46 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>4.7</v>
+      </c>
       <c r="N51">
         <v>0.7</v>
       </c>
       <c r="O51">
-        <f>J26</f>
+        <f t="shared" si="25"/>
         <v>1.0044</v>
       </c>
       <c r="P51">
-        <f>J37</f>
+        <f t="shared" si="26"/>
         <v>0.49509999999999998</v>
       </c>
       <c r="Q51">
-        <f>J48</f>
+        <f t="shared" si="27"/>
         <v>0.19089999999999999</v>
       </c>
       <c r="R51">
-        <f>J59</f>
+        <f t="shared" si="28"/>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="24"/>
-        <v>1531721961829.4888</v>
+        <f t="shared" si="32"/>
+        <v>1021147974552.9926</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="21"/>
-        <v>3107375355406.0566</v>
+        <f t="shared" si="29"/>
+        <v>2071583570270.7043</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="22"/>
-        <v>8058991820123.3037</v>
+        <f t="shared" si="30"/>
+        <v>5372661213415.5352</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="23"/>
-        <v>32873109796186.723</v>
+        <f t="shared" si="31"/>
+        <v>21915406530791.145</v>
       </c>
       <c r="Z51">
         <v>64</v>
@@ -11162,36 +13289,36 @@
         <v>0.8</v>
       </c>
       <c r="O52">
-        <f>J27</f>
+        <f t="shared" si="25"/>
         <v>1.0084</v>
       </c>
       <c r="P52">
-        <f>J38</f>
+        <f t="shared" si="26"/>
         <v>0.47899999999999998</v>
       </c>
       <c r="Q52">
-        <f>J49</f>
+        <f t="shared" si="27"/>
         <v>0.1986</v>
       </c>
       <c r="R52">
-        <f>J60</f>
+        <f t="shared" si="28"/>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="24"/>
-        <v>1525646111128.063</v>
+        <f t="shared" si="32"/>
+        <v>1017097407418.7085</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="21"/>
-        <v>3211819495744.3394</v>
+        <f t="shared" si="29"/>
+        <v>2141212997162.8928</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="22"/>
-        <v>7746533426291.7354</v>
+        <f t="shared" si="30"/>
+        <v>5164355617527.8232</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="23"/>
-        <v>35945363048166.789</v>
+        <f t="shared" si="31"/>
+        <v>23963575365444.527</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
@@ -11217,36 +13344,36 @@
         <v>0.9</v>
       </c>
       <c r="O53">
-        <f>J28</f>
+        <f t="shared" si="25"/>
         <v>0.92789999999999995</v>
       </c>
       <c r="P53">
-        <f>J39</f>
+        <f t="shared" si="26"/>
         <v>0.46679999999999999</v>
       </c>
       <c r="Q53">
-        <f>J50</f>
+        <f t="shared" si="27"/>
         <v>0.1767</v>
       </c>
       <c r="R53">
-        <f>J61</f>
+        <f t="shared" si="28"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="24"/>
-        <v>1658003597867.8076</v>
+        <f t="shared" si="32"/>
+        <v>1105335731911.8716</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="21"/>
-        <v>3295761650517.4351</v>
+        <f t="shared" si="29"/>
+        <v>2197174433678.2898</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="22"/>
-        <v>8706630098820.2529</v>
+        <f t="shared" si="30"/>
+        <v>5804420065880.168</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="23"/>
-        <v>34417484081913.617</v>
+        <f t="shared" si="31"/>
+        <v>22944989387942.41</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
@@ -11323,6 +13450,12 @@
       <c r="J56">
         <v>3.3399999999999999E-2</v>
       </c>
+      <c r="P56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>21</v>
+      </c>
       <c r="Z56">
         <v>64</v>
       </c>
@@ -11358,6 +13491,12 @@
       <c r="J57">
         <v>4.19E-2</v>
       </c>
+      <c r="P57">
+        <v>0.9</v>
+      </c>
+      <c r="Q57">
+        <v>8.9</v>
+      </c>
       <c r="Z57">
         <v>32</v>
       </c>
@@ -11393,6 +13532,12 @@
       <c r="J58">
         <v>4.5699999999999998E-2</v>
       </c>
+      <c r="P58">
+        <v>1.2</v>
+      </c>
+      <c r="Q58">
+        <v>4.7</v>
+      </c>
       <c r="Z58">
         <v>16</v>
       </c>
@@ -11428,6 +13573,12 @@
       <c r="J59">
         <v>4.6800000000000001E-2</v>
       </c>
+      <c r="P59">
+        <v>1.5</v>
+      </c>
+      <c r="Q59">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -11448,6 +13599,12 @@
       <c r="J60">
         <v>4.2799999999999998E-2</v>
       </c>
+      <c r="P60">
+        <v>1.8</v>
+      </c>
+      <c r="Q60">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -11467,6 +13624,42 @@
       </c>
       <c r="J61">
         <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>8.9</v>
+      </c>
+      <c r="P62">
+        <v>16</v>
+      </c>
+      <c r="Q62">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>32</v>
+      </c>
+      <c r="Q63">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>64</v>
+      </c>
+      <c r="Q64">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\TTLiu_Project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71B6EA-3377-4A74-AFAF-BAE8C8F868D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B8324-4B9D-4EF2-B304-1BAD6BE67DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3590" yWindow="3720" windowWidth="19740" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,85 @@
     <t>delaySize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.8V</t>
+  </si>
+  <si>
+    <t>64bit</t>
+  </si>
+  <si>
+    <t>64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch p</t>
+  </si>
+  <si>
+    <t>switch p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD1</t>
+  </si>
+  <si>
+    <t>ADD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD3</t>
+  </si>
+  <si>
+    <t>ADD4</t>
+  </si>
+  <si>
+    <t>ADD5</t>
+  </si>
+  <si>
+    <t>ADD6</t>
+  </si>
+  <si>
+    <t>total power</t>
+  </si>
+  <si>
+    <t>total power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_cycle</t>
+  </si>
+  <si>
+    <t>T_cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPS/W</t>
+  </si>
+  <si>
+    <t>input 50 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input 90 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input 70 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -172,9 +251,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1389,6 +1469,3650 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3232100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$71:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7278000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$71:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1082738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1369754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$71:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12952910000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1110937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$71:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0377999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EADF-42A2-BB36-A42CF297923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123868415"/>
+        <c:axId val="1123858815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123868415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Input Toggle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123858815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123858815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>I (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123868415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOPS/W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$71:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$71:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6506948691773865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41490332752468667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34618846500034617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33056758454265972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35076642463783358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F9-48AA-9E55-FC2A8A46D30D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1129506367"/>
+        <c:axId val="1129528447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1129506367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> Toggle Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129528447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1129528447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>TOPS/W</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129506367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$80:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$80:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$80:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$80:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$80:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$80:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$80:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-08E9-44F3-B9B0-D319FED9CF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123868415"/>
+        <c:axId val="1123858815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123868415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Input Toggle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123858815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123858815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>I (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123868415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$89:$B$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$89:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$89:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$89:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$89:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$89:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$89:$H$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-18E6-4C58-B174-01E392FFEAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123868415"/>
+        <c:axId val="1123858815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123868415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Input Toggle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123858815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123858815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>I (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123868415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$98:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1821681800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1930000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C59-435B-89B6-5AE8697AFBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$98:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0374000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3168000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1903000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C59-435B-89B6-5AE8697AFBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$98:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0599000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1827000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1796000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C59-435B-89B6-5AE8697AFBEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227621535"/>
+        <c:axId val="227600895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227621535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Input Toggle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227600895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227600895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+                  <a:t>Power (mW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227621535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6597,6 +10321,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6837,6 +10681,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7353,8 +11277,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7381,8 +11305,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7483,7 +11407,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7515,10 +11439,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7558,23 +11482,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7679,8 +11602,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7812,20 +11735,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7839,17 +11761,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7869,8 +11780,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7897,8 +11808,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7999,7 +11910,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8031,10 +11942,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8074,23 +11985,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8195,8 +12105,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8328,20 +12238,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8355,17 +12264,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8385,7 +12283,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8901,7 +12799,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9417,7 +13315,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9933,7 +13831,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10430,6 +14328,2560 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10817,6 +17269,190 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="圖表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614C0D61-43D9-91A7-8F2C-D5A24B0DA645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="圖表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35D8FCE-2824-0C5B-B0C4-88DF423B441E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="圖表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB945160-28D8-4234-BC9B-8FBE948DB116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="圖表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC4A45A-9662-4960-8F76-9E53076BA3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="圖表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631FE4F8-0207-DC2D-9ED0-A6D72EEBD52F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11083,17 +17719,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61:Q64"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11267,7 +17904,7 @@
       </c>
       <c r="O15" s="1">
         <f>O17/($B$17/1000000)</f>
-        <v>551847142756.23364</v>
+        <v>827770714134.35059</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ref="P15:R15" si="1">P17/($B$17/1000000)</f>
@@ -11288,7 +17925,7 @@
       </c>
       <c r="O16">
         <f>O17/(MAX(O19:O27)/1000)/10^12</f>
-        <v>0.22133907929583188</v>
+        <v>0.33200861894374778</v>
       </c>
       <c r="P16">
         <f t="shared" ref="P16" si="2">P17/(MAX(P19:P27)/1000)/10^12</f>
@@ -11332,8 +17969,8 @@
         <v>13</v>
       </c>
       <c r="O17" s="1">
-        <f>2/(3*$D$11)*10^12</f>
-        <v>1025641025.6410257</v>
+        <f>2/(2*$D$11)*10^12</f>
+        <v>1538461538.4615386</v>
       </c>
       <c r="P17" s="1">
         <f>2/(2*$D$8)*10^12</f>
@@ -11447,19 +18084,19 @@
       </c>
       <c r="S19" s="1">
         <f>$O$17*1000/O19</f>
-        <v>477419832258.54193</v>
+        <v>716129748387.81299</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ref="T19:V27" si="9">$O$17*1000/P19</f>
-        <v>962772013180.34888</v>
+        <v>1444158019770.5234</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="9"/>
-        <v>2192946387943.1807</v>
+        <v>3289419581914.7715</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="9"/>
-        <v>10349556262775.234</v>
+        <v>15524334394162.852</v>
       </c>
       <c r="X19">
         <v>1.8</v>
@@ -11514,19 +18151,19 @@
       </c>
       <c r="S20" s="1">
         <f t="shared" ref="S20:S27" si="10">$O$17*1000/O20</f>
-        <v>347498229930.8913</v>
+        <v>521247344896.33704</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="9"/>
-        <v>596719237631.50195</v>
+        <v>895078856447.25305</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="9"/>
-        <v>1691639494707.283</v>
+        <v>2537459242060.9248</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="9"/>
-        <v>6774379297496.8662</v>
+        <v>10161568946245.301</v>
       </c>
       <c r="X20">
         <v>1.5</v>
@@ -11581,19 +18218,19 @@
       </c>
       <c r="S21" s="1">
         <f t="shared" si="10"/>
-        <v>268633060670.77673</v>
+        <v>402949591006.16516</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="9"/>
-        <v>577598144754.75903</v>
+        <v>866397217132.13855</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="9"/>
-        <v>1371177841766.0771</v>
+        <v>2056766762649.1157</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="9"/>
-        <v>5707518228386.3418</v>
+        <v>8561277342579.5137</v>
       </c>
       <c r="X21">
         <v>1.2</v>
@@ -11648,19 +18285,19 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" si="10"/>
-        <v>248839320096.32571</v>
+        <v>373258980144.48859</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="9"/>
-        <v>498101610237.98053</v>
+        <v>747152415356.97083</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="9"/>
-        <v>1299760519124.3513</v>
+        <v>1949640778686.5271</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="9"/>
-        <v>5003126954346.4668</v>
+        <v>7504690431519.7012</v>
       </c>
       <c r="X22">
         <v>0.9</v>
@@ -11715,19 +18352,19 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="10"/>
-        <v>228438020767.30048</v>
+        <v>342657031150.95074</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="9"/>
-        <v>465607874360.37122</v>
+        <v>698411811540.55688</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="9"/>
-        <v>1229932876413.2698</v>
+        <v>1844899314619.9048</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="9"/>
-        <v>5110319011664.3037</v>
+        <v>7665478517496.4561</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
@@ -11770,19 +18407,19 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" si="10"/>
-        <v>229080904503.04333</v>
+        <v>343621356754.56506</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>474197154579.97394</v>
+        <v>711295731869.96094</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>1199439861584.6399</v>
+        <v>1799159792376.9602</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>4774865110060.6406</v>
+        <v>7162297665090.9619</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
@@ -11825,19 +18462,19 @@
       </c>
       <c r="S25" s="1">
         <f t="shared" si="10"/>
-        <v>221928167400.41666</v>
+        <v>332892251100.625</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" si="9"/>
-        <v>432997435572.68781</v>
+        <v>649496153359.03174</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="9"/>
-        <v>1209482341557.8132</v>
+        <v>1814223512336.72</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="9"/>
-        <v>4704775346977.1816</v>
+        <v>7057163020465.7734</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
@@ -11880,19 +18517,19 @@
       </c>
       <c r="S26" s="1">
         <f t="shared" si="10"/>
-        <v>221339079295.83185</v>
+        <v>332008618943.7478</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="9"/>
-        <v>434427983244.11267</v>
+        <v>651641974866.16907</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="9"/>
-        <v>1162990164010.6877</v>
+        <v>1744485246016.032</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="9"/>
-        <v>4801690194948.6221</v>
+        <v>7202535292422.9326</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
@@ -11935,19 +18572,19 @@
       </c>
       <c r="S27" s="1">
         <f t="shared" si="10"/>
-        <v>224169131126.05197</v>
+        <v>336253696689.078</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="9"/>
-        <v>457018548097.77454</v>
+        <v>685527822146.66187</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="9"/>
-        <v>1172429155968.2505</v>
+        <v>1758643733952.376</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="9"/>
-        <v>5008012820512.8203</v>
+        <v>7512019230769.2314</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
@@ -12154,19 +18791,19 @@
       </c>
       <c r="S32" s="1">
         <f>$O$17*1000/O32</f>
-        <v>967585873246.25061</v>
+        <v>1451378809869.376</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ref="T32:T40" si="19">$O$17*1000/P32</f>
-        <v>2261113372224.4834</v>
+        <v>3391670058336.7251</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" ref="U32:U40" si="20">$O$17*1000/Q32</f>
-        <v>5997900734742.8398</v>
+        <v>8996851102114.2598</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" ref="V32:V40" si="21">$O$17*1000/R32</f>
-        <v>22009464069549.906</v>
+        <v>33014196104324.859</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
@@ -12209,19 +18846,19 @@
       </c>
       <c r="S33" s="1">
         <f t="shared" ref="S33:S40" si="22">$O$17*1000/O33</f>
-        <v>720658393508.3092</v>
+        <v>1080987590262.4639</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="19"/>
-        <v>1480215075250.4341</v>
+        <v>2220322612875.6509</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="20"/>
-        <v>3524539607013.834</v>
+        <v>5286809410520.751</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="21"/>
-        <v>20512820512820.512</v>
+        <v>30769230769230.77</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -12264,19 +18901,19 @@
       </c>
       <c r="S34" s="1">
         <f t="shared" si="22"/>
-        <v>555391252310.08044</v>
+        <v>833086878465.12085</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="19"/>
-        <v>1166296367569.9631</v>
+        <v>1749444551354.9451</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="20"/>
-        <v>2930402930402.9307</v>
+        <v>4395604395604.396</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="21"/>
-        <v>12523089446166.369</v>
+        <v>18784634169249.555</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -12319,19 +18956,19 @@
       </c>
       <c r="S35" s="1">
         <f t="shared" si="22"/>
-        <v>586114078313.63257</v>
+        <v>879171117470.44897</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="19"/>
-        <v>1029553328288.5221</v>
+        <v>1544329992432.7832</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="20"/>
-        <v>2680713605961.9072</v>
+        <v>4021070408942.8608</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="21"/>
-        <v>12401947105695.596</v>
+        <v>18602920658543.395</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -12374,19 +19011,19 @@
       </c>
       <c r="S36" s="1">
         <f t="shared" si="22"/>
-        <v>526780187797.1369</v>
+        <v>790170281695.70544</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" si="19"/>
-        <v>1049893567039.6414</v>
+        <v>1574840350559.4622</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" si="20"/>
-        <v>2658478552724.2759</v>
+        <v>3987717829086.4146</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="21"/>
-        <v>10124788012250.994</v>
+        <v>15187182018376.49</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -12429,19 +19066,19 @@
       </c>
       <c r="S37" s="1">
         <f t="shared" si="22"/>
-        <v>490925246812.66785</v>
+        <v>736387870219.00183</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="19"/>
-        <v>1015285117443.106</v>
+        <v>1522927676164.6592</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="20"/>
-        <v>2368685971457.334</v>
+        <v>3553028957186.0015</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="21"/>
-        <v>8895412191162.4082</v>
+        <v>13343118286743.613</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -12484,19 +19121,19 @@
       </c>
       <c r="S38" s="1">
         <f t="shared" si="22"/>
-        <v>470089387497.03259</v>
+        <v>705134081245.54895</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" si="19"/>
-        <v>918046030827.98572</v>
+        <v>1377069046241.9788</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="20"/>
-        <v>2374169040835.7075</v>
+        <v>3561253561253.5615</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="21"/>
-        <v>8895412191162.4082</v>
+        <v>13343118286743.613</v>
       </c>
       <c r="AB38" t="s">
         <v>14</v>
@@ -12542,19 +19179,19 @@
       </c>
       <c r="S39" s="1">
         <f t="shared" si="22"/>
-        <v>469207660753.47711</v>
+        <v>703811491130.2157</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" si="19"/>
-        <v>936487422973.90955</v>
+        <v>1404731134460.8643</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="20"/>
-        <v>2457802601584.0537</v>
+        <v>3686703902376.0811</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="21"/>
-        <v>9375146486663.8535</v>
+        <v>14062719729995.783</v>
       </c>
       <c r="AB39">
         <v>0.1</v>
@@ -12597,19 +19234,19 @@
       </c>
       <c r="S40" s="1">
         <f t="shared" si="22"/>
-        <v>497497587136.70239</v>
+        <v>746246380705.05371</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" si="19"/>
-        <v>945639890873.15662</v>
+        <v>1418459836309.7349</v>
       </c>
       <c r="U40" s="1">
         <f t="shared" si="20"/>
-        <v>2508906618495.6597</v>
+        <v>3763359927743.4897</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="21"/>
-        <v>10195238823469.439</v>
+        <v>15292858235204.162</v>
       </c>
       <c r="AA40">
         <v>827770714134.35059</v>
@@ -12876,19 +19513,19 @@
       </c>
       <c r="S45" s="1">
         <f>$O$17*1000/O45</f>
-        <v>2917897654739.7603</v>
+        <v>4376846482109.6406</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" ref="T45:T53" si="29">$O$17*1000/P45</f>
-        <v>6562002723231.1299</v>
+        <v>9843004084846.6953</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" ref="U45:U53" si="30">$O$17*1000/Q45</f>
-        <v>11655011655011.656</v>
+        <v>17482517482517.484</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" ref="V45:V53" si="31">$O$17*1000/R45</f>
-        <v>60688818085267.797</v>
+        <v>91033227127901.703</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
@@ -12931,19 +19568,19 @@
       </c>
       <c r="S46" s="1">
         <f t="shared" ref="S46:S53" si="32">$O$17*1000/O46</f>
-        <v>1755933959323.79</v>
+        <v>2633900938985.6851</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="29"/>
-        <v>3651267446212.2666</v>
+        <v>5476901169318.4004</v>
       </c>
       <c r="U46" s="1">
         <f t="shared" si="30"/>
-        <v>8728859792689.5801</v>
+        <v>13093289689034.371</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" si="31"/>
-        <v>38703434929850.023</v>
+        <v>58055152394775.039</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
@@ -12986,19 +19623,19 @@
       </c>
       <c r="S47" s="1">
         <f t="shared" si="32"/>
-        <v>1474045739639.301</v>
+        <v>2211068609458.9517</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="29"/>
-        <v>2548809705867.3599</v>
+        <v>3823214558801.0405</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="30"/>
-        <v>7357539638744.8037</v>
+        <v>11036309458117.207</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="31"/>
-        <v>32252862441541.684</v>
+        <v>48379293662312.531</v>
       </c>
       <c r="Z47" t="s">
         <v>14</v>
@@ -13044,19 +19681,19 @@
       </c>
       <c r="S48" s="1">
         <f t="shared" si="32"/>
-        <v>1275514271410.3042</v>
+        <v>1913271407115.4563</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="29"/>
-        <v>2403658368036.1509</v>
+        <v>3605487552054.2266</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="30"/>
-        <v>6234899851921.1279</v>
+        <v>9352349777881.6934</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="31"/>
-        <v>30707815138952.863</v>
+        <v>46061722708429.297</v>
       </c>
       <c r="AA48">
         <v>0.1</v>
@@ -13108,19 +19745,19 @@
       </c>
       <c r="S49" s="1">
         <f t="shared" si="32"/>
-        <v>1195525149365.9233</v>
+        <v>1793287724048.8853</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="29"/>
-        <v>2372521456490.9219</v>
+        <v>3558782184736.3833</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="30"/>
-        <v>6462766387152.0205</v>
+        <v>9694149580728.0313</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="31"/>
-        <v>24478306101217.797</v>
+        <v>36717459151826.695</v>
       </c>
       <c r="Z49">
         <v>16</v>
@@ -13175,19 +19812,19 @@
       </c>
       <c r="S50" s="1">
         <f t="shared" si="32"/>
-        <v>1120062275462.5159</v>
+        <v>1680093413193.7737</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" si="29"/>
-        <v>2144346697974.1284</v>
+        <v>3216520046961.1929</v>
       </c>
       <c r="U50" s="1">
         <f t="shared" si="30"/>
-        <v>6019020103527.1455</v>
+        <v>9028530155290.7188</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="31"/>
-        <v>22442910845536.668</v>
+        <v>33664366268305.004</v>
       </c>
       <c r="Z50">
         <v>32</v>
@@ -13230,19 +19867,19 @@
       </c>
       <c r="S51" s="1">
         <f t="shared" si="32"/>
-        <v>1021147974552.9926</v>
+        <v>1531721961829.4888</v>
       </c>
       <c r="T51" s="1">
         <f t="shared" si="29"/>
-        <v>2071583570270.7043</v>
+        <v>3107375355406.0566</v>
       </c>
       <c r="U51" s="1">
         <f t="shared" si="30"/>
-        <v>5372661213415.5352</v>
+        <v>8058991820123.3037</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="31"/>
-        <v>21915406530791.145</v>
+        <v>32873109796186.723</v>
       </c>
       <c r="Z51">
         <v>64</v>
@@ -13306,19 +19943,19 @@
       </c>
       <c r="S52" s="1">
         <f t="shared" si="32"/>
-        <v>1017097407418.7085</v>
+        <v>1525646111128.063</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" si="29"/>
-        <v>2141212997162.8928</v>
+        <v>3211819495744.3394</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="30"/>
-        <v>5164355617527.8232</v>
+        <v>7746533426291.7354</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="31"/>
-        <v>23963575365444.527</v>
+        <v>35945363048166.789</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
@@ -13361,19 +19998,19 @@
       </c>
       <c r="S53" s="1">
         <f t="shared" si="32"/>
-        <v>1105335731911.8716</v>
+        <v>1658003597867.8076</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" si="29"/>
-        <v>2197174433678.2898</v>
+        <v>3295761650517.4351</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="30"/>
-        <v>5804420065880.168</v>
+        <v>8706630098820.2529</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="31"/>
-        <v>22944989387942.41</v>
+        <v>34417484081913.617</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
@@ -13660,6 +20297,741 @@
       </c>
       <c r="Q64">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69">
+        <f>2.6*10^-9</f>
+        <v>2.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.1</v>
+      </c>
+      <c r="B71">
+        <f>0.0332321</f>
+        <v>3.3232100000000001E-2</v>
+      </c>
+      <c r="C71">
+        <f>0.067278</f>
+        <v>6.7278000000000004E-2</v>
+      </c>
+      <c r="D71">
+        <f>0.1082738</f>
+        <v>0.1082738</v>
+      </c>
+      <c r="E71">
+        <f>0.1369754</f>
+        <v>0.1369754</v>
+      </c>
+      <c r="F71">
+        <f>0.1295291</f>
+        <v>0.12952910000000001</v>
+      </c>
+      <c r="G71">
+        <f>0.1110937</f>
+        <v>0.1110937</v>
+      </c>
+      <c r="H71">
+        <f>0.070378</f>
+        <v>7.0377999999999996E-2</v>
+      </c>
+      <c r="I71">
+        <f>SUM(B71:H71)*1.8</f>
+        <v>1.1821681800000001</v>
+      </c>
+      <c r="J71">
+        <f>2/$J$69/I71/10^9</f>
+        <v>0.6506948691773865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.3</v>
+      </c>
+      <c r="B72">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D72">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.20576</v>
+      </c>
+      <c r="F72">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.128</v>
+      </c>
+      <c r="H72">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I72">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J75" si="33">2/$J$69/I72/10^9</f>
+        <v>0.41490332752468667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.5</v>
+      </c>
+      <c r="B73">
+        <v>0.16</v>
+      </c>
+      <c r="C73">
+        <v>0.217</v>
+      </c>
+      <c r="D73">
+        <v>0.245</v>
+      </c>
+      <c r="E73">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H73">
+        <v>0.08</v>
+      </c>
+      <c r="I73">
+        <v>2.222</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="33"/>
+        <v>0.34618846500034617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.7</v>
+      </c>
+      <c r="B74">
+        <v>0.222</v>
+      </c>
+      <c r="C74">
+        <v>0.246</v>
+      </c>
+      <c r="D74">
+        <v>0.23</v>
+      </c>
+      <c r="E74">
+        <v>0.218</v>
+      </c>
+      <c r="F74">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.13</v>
+      </c>
+      <c r="H74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I74">
+        <v>2.327</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="33"/>
+        <v>0.33056758454265972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.9</v>
+      </c>
+      <c r="B75">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C75">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D75">
+        <v>0.17</v>
+      </c>
+      <c r="E75">
+        <v>0.183</v>
+      </c>
+      <c r="F75">
+        <v>0.155</v>
+      </c>
+      <c r="G75">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H75">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I75">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="33"/>
+        <v>0.35076642463783358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78">
+        <v>2.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.1</v>
+      </c>
+      <c r="B80">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C80">
+        <v>0.06</v>
+      </c>
+      <c r="D80">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.12</v>
+      </c>
+      <c r="F80">
+        <v>0.111</v>
+      </c>
+      <c r="G80">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H80">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I80">
+        <v>1.0374000000000001</v>
+      </c>
+      <c r="J80">
+        <f>2/$J$69/I80/10^9</f>
+        <v>0.74149871720721916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.3</v>
+      </c>
+      <c r="B81">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C81">
+        <v>0.158</v>
+      </c>
+      <c r="D81">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.129</v>
+      </c>
+      <c r="H81">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I81">
+        <v>1.8353999999999999</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ref="J81:J84" si="34">2/$J$69/I81/10^9</f>
+        <v>0.41910797059538479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.5</v>
+      </c>
+      <c r="B82">
+        <v>0.161</v>
+      </c>
+      <c r="C82">
+        <v>0.223</v>
+      </c>
+      <c r="D82">
+        <v>0.24</v>
+      </c>
+      <c r="E82">
+        <v>0.224</v>
+      </c>
+      <c r="F82">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.129</v>
+      </c>
+      <c r="H82">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I82">
+        <v>2.1978</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="34"/>
+        <v>0.35000035000035001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.7</v>
+      </c>
+      <c r="B83">
+        <v>0.219</v>
+      </c>
+      <c r="C83">
+        <v>0.245</v>
+      </c>
+      <c r="D83">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E83">
+        <v>0.217</v>
+      </c>
+      <c r="F83">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G83">
+        <v>0.125</v>
+      </c>
+      <c r="H83">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I83">
+        <v>2.3168000000000002</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="34"/>
+        <v>0.33202294942626431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.9</v>
+      </c>
+      <c r="B84">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C84">
+        <v>0.22</v>
+      </c>
+      <c r="D84">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0.185</v>
+      </c>
+      <c r="F84">
+        <v>0.16</v>
+      </c>
+      <c r="G84">
+        <v>0.123</v>
+      </c>
+      <c r="H84">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I84">
+        <v>2.1903000000000001</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="34"/>
+        <v>0.35119881716238371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87">
+        <v>2.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.1</v>
+      </c>
+      <c r="B89">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C89">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D89">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.12</v>
+      </c>
+      <c r="F89">
+        <v>0.112</v>
+      </c>
+      <c r="G89">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H89">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I89">
+        <v>1.0599000000000001</v>
+      </c>
+      <c r="J89">
+        <f>2/$J$69/I89/10^9</f>
+        <v>0.72575787265852354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.3</v>
+      </c>
+      <c r="B90">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C90">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D90">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E90">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F90">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G90">
+        <v>0.127</v>
+      </c>
+      <c r="H90">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I90">
+        <v>1.8978999999999999</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90:J93" si="35">2/$J$69/I90/10^9</f>
+        <v>0.40530626968268568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.5</v>
+      </c>
+      <c r="B91">
+        <v>0.161</v>
+      </c>
+      <c r="C91">
+        <v>0.224</v>
+      </c>
+      <c r="D91">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.222</v>
+      </c>
+      <c r="F91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.124</v>
+      </c>
+      <c r="H91">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I91">
+        <v>2.1827000000000001</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="35"/>
+        <v>0.35242166547430664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.7</v>
+      </c>
+      <c r="B92">
+        <v>0.223</v>
+      </c>
+      <c r="C92">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D92">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E92">
+        <v>0.217</v>
+      </c>
+      <c r="F92">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G92">
+        <v>0.128</v>
+      </c>
+      <c r="H92">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I92">
+        <v>2.3304</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="35"/>
+        <v>0.33008529403997988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.9</v>
+      </c>
+      <c r="B93">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C93">
+        <v>0.246</v>
+      </c>
+      <c r="D93">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.17</v>
+      </c>
+      <c r="F93">
+        <v>0.151</v>
+      </c>
+      <c r="G93">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I93">
+        <v>2.1796000000000002</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="35"/>
+        <v>0.35292290752008121</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0.1</v>
+      </c>
+      <c r="G98">
+        <v>1.1821681800000001</v>
+      </c>
+      <c r="H98">
+        <v>1.0374000000000001</v>
+      </c>
+      <c r="I98">
+        <v>1.0599000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0.3</v>
+      </c>
+      <c r="G99">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="H99">
+        <v>1.8353999999999999</v>
+      </c>
+      <c r="I99">
+        <v>1.8978999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>0.5</v>
+      </c>
+      <c r="G100">
+        <v>2.222</v>
+      </c>
+      <c r="H100">
+        <v>2.1978</v>
+      </c>
+      <c r="I100">
+        <v>2.1827000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>0.7</v>
+      </c>
+      <c r="G101">
+        <v>2.327</v>
+      </c>
+      <c r="H101">
+        <v>2.3168000000000002</v>
+      </c>
+      <c r="I101">
+        <v>2.3304</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>0.9</v>
+      </c>
+      <c r="G102">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="H102">
+        <v>2.1903000000000001</v>
+      </c>
+      <c r="I102">
+        <v>2.1796000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -13668,6 +21040,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\TTLiu_Project\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B8324-4B9D-4EF2-B304-1BAD6BE67DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B779E10-52C3-43A9-AE53-727D03081B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3590" yWindow="3720" windowWidth="19740" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17388" yWindow="0" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$132:$J$132</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$133:$J$133</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$132:$J$132</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$133:$J$133</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +214,72 @@
   </si>
   <si>
     <t>input 70 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPS/mm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input 50 50</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interleaved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power %</t>
+  </si>
+  <si>
+    <t>power %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with sizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tops/w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD7</t>
+  </si>
+  <si>
+    <t>ADD8</t>
+  </si>
+  <si>
+    <t>Interleaving</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4533,7 +4605,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$97</c:f>
+              <c:f>Sheet1!$C$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4568,7 +4640,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:f>Sheet1!$B$98:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4592,7 +4664,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$98:$G$102</c:f>
+              <c:f>Sheet1!$C$98:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4626,7 +4698,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$97</c:f>
+              <c:f>Sheet1!$D$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4661,7 +4733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:f>Sheet1!$B$98:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4685,7 +4757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$98:$H$102</c:f>
+              <c:f>Sheet1!$D$98:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4719,7 +4791,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$97</c:f>
+              <c:f>Sheet1!$E$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4754,7 +4826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:f>Sheet1!$B$98:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4778,7 +4850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$98:$I$102</c:f>
+              <c:f>Sheet1!$E$98:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5113,6 +5185,2104 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$98:$O$98</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$99:$O$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15884641999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1854556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19005476000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17901094308090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15970582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12381874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4075600000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECB1-4242-8F4B-24535FD6D117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interleaved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$98:$O$98</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$100:$O$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17901094308090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECB1-4242-8F4B-24535FD6D117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="187706816"/>
+        <c:axId val="187716896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="187706816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187716896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187716896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>I (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187706816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Power (mW)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$133:$A$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$133:$K$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9402999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD3-4883-A46B-65CE85F62D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1732924735"/>
+        <c:axId val="1732914655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1732924735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> toggle rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732914655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1732914655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732924735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$133:$J$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8501-4E1A-A194-70826B5CC7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$134:$J$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8501-4E1A-A194-70826B5CC7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$135:$J$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8501-4E1A-A194-70826B5CC7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$136:$J$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8501-4E1A-A194-70826B5CC7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$137:$J$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8501-4E1A-A194-70826B5CC7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1302891599"/>
+        <c:axId val="1302888239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1302891599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302888239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302888239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302891599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$143:$J$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2D6-4D5B-A03E-6FCDD9EAEA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$144:$J$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2D6-4D5B-A03E-6FCDD9EAEA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$145:$J$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B2D6-4D5B-A03E-6FCDD9EAEA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$146:$J$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B2D6-4D5B-A03E-6FCDD9EAEA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADD1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADD2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADD4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ADD5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADD6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ADD7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADD8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$147:$J$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B2D6-4D5B-A03E-6FCDD9EAEA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1302891599"/>
+        <c:axId val="1302888239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1302891599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302888239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302888239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302891599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5777,6 +7947,382 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Power (mW)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$143:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$143:$K$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0271999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4626999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A006-4716-88F0-E81840F795E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1732924735"/>
+        <c:axId val="1732914655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1732924735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> toggle rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732914655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1732914655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732924735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10441,6 +12987,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12780,6 +15526,2521 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17307,16 +22568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17343,16 +22604,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17381,16 +22642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17419,16 +22680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17448,6 +22709,190 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>112643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="圖表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914FBE6-873F-335A-271A-AEAF1A6D89DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B1DA4B-8F50-9902-8AF9-3ADCAF13FF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56321</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>139147</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="圖表 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E0F409-3E9A-C174-9771-5BA16B2B2BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99001</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>29622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>493448</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>82631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="圖表 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D419C623-2FFC-4BF4-848D-5C9B6A5A7762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75225</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>156687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="圖表 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610219B4-3BFC-4D4F-B9E6-22321598809B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17719,18 +23164,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="J113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17904,22 +23353,37 @@
       </c>
       <c r="O15" s="1">
         <f>O17/($B$17/1000000)</f>
-        <v>827770714134.35059</v>
+        <v>4598726189635.2813</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ref="P15:R15" si="1">P17/($B$17/1000000)</f>
-        <v>648254173719.67212</v>
+        <f>P17/($B$17/1000000)</f>
+        <v>3601412076220.4004</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="1"/>
-        <v>417093770687.85101</v>
+        <f>Q17/($B$17/1000000)</f>
+        <v>2317187614932.5059</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="1"/>
-        <v>199278134884.19547</v>
+        <f>R17/($B$17/1000000)</f>
+        <v>1107100749356.6416</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>((0.42+0.51)*3)*64
++((0.25+0.75)*14)*32+((0.25+0.75)*14)*2*16+((0.25+0.75)*14)*3*8+((0.25+0.75)*14)*4*4+((0.25+0.75)*14)*5*2+((0.25+0.75)*14)*6*1</f>
+        <v>1858.56</v>
+      </c>
+      <c r="F16">
+        <f>((0.42+0.51)*3)*32
++((0.25+0.75)*14)*16+((0.25+0.75)*14)*2*8+((0.25+0.75)*14)*3*4+((0.25+0.75)*14)*4*2+((0.25+0.75)*14)*5*1</f>
+        <v>887.28</v>
+      </c>
+      <c r="J16">
+        <f>((0.42+0.51)*3)*16
++((0.25+0.75)*14)*8+((0.25+0.75)*14)*2*4+((0.25+0.75)*14)*3*2+((0.25+0.75)*14)*4*1</f>
+        <v>408.64</v>
+      </c>
       <c r="N16" t="s">
         <v>14</v>
       </c>
@@ -17928,15 +23392,15 @@
         <v>0.33200861894374778</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16" si="2">P17/(MAX(P19:P27)/1000)/10^12</f>
+        <f t="shared" ref="P16" si="1">P17/(MAX(P19:P27)/1000)/10^12</f>
         <v>0.50864156588357901</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16" si="3">Q17/(MAX(Q19:Q27)/1000)/10^12</f>
+        <f t="shared" ref="Q16" si="2">Q17/(MAX(Q19:Q27)/1000)/10^12</f>
         <v>0.87900419372900818</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16" si="4">R17/(MAX(R19:R27)/1000)/10^12</f>
+        <f t="shared" ref="R16" si="3">R17/(MAX(R19:R27)/1000)/10^12</f>
         <v>1.6989466530750932</v>
       </c>
     </row>
@@ -17945,25 +23409,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>((0.42+0.51)*3)*64
-+((0.25+0.75)*14)*32+((0.25+0.75)*14)*2*16+((0.25+0.75)*14)*3*8+((0.25+0.75)*14)*4*4+((0.25+0.75)*14)*5*2+((0.25+0.75)*14)*6*1</f>
-        <v>1858.56</v>
+        <f>B16*0.18</f>
+        <v>334.54079999999999</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17">
-        <f>((0.42+0.51)*3)*32
-+((0.25+0.75)*14)*16+((0.25+0.75)*14)*2*8+((0.25+0.75)*14)*3*4+((0.25+0.75)*14)*4*2+((0.25+0.75)*14)*5*1</f>
-        <v>887.28</v>
+        <f>F16*0.18</f>
+        <v>159.71039999999999</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17">
-        <f>((0.42+0.51)*3)*16
-+((0.25+0.75)*14)*8+((0.25+0.75)*14)*2*4+((0.25+0.75)*14)*3*2+((0.25+0.75)*14)*4*1</f>
-        <v>408.64</v>
+        <f>J16*0.18</f>
+        <v>73.555199999999999</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -18067,19 +23528,19 @@
         <v>0.1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O27" si="5">B20</f>
+        <f t="shared" ref="O19:O27" si="4">B20</f>
         <v>2.1482999999999999</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P27" si="6">B31</f>
+        <f t="shared" ref="P19:P27" si="5">B31</f>
         <v>1.0652999999999999</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q27" si="7">B42</f>
+        <f t="shared" ref="Q19:Q27" si="6">B42</f>
         <v>0.4677</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R27" si="8">B53</f>
+        <f t="shared" ref="R19:R27" si="7">B53</f>
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="S19" s="1">
@@ -18087,15 +23548,15 @@
         <v>716129748387.81299</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" ref="T19:V27" si="9">$O$17*1000/P19</f>
+        <f t="shared" ref="T19:V27" si="8">$O$17*1000/P19</f>
         <v>1444158019770.5234</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3289419581914.7715</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15524334394162.852</v>
       </c>
       <c r="X19">
@@ -18134,35 +23595,35 @@
         <v>0.2</v>
       </c>
       <c r="O20">
+        <f t="shared" si="4"/>
+        <v>2.9514999999999998</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="5"/>
-        <v>2.9514999999999998</v>
-      </c>
-      <c r="P20">
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="6"/>
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="Q20">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="7"/>
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="R20">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S27" si="9">$O$17*1000/O20</f>
+        <v>521247344896.33704</v>
+      </c>
+      <c r="T20" s="1">
         <f t="shared" si="8"/>
-        <v>0.15140000000000001</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" ref="S20:S27" si="10">$O$17*1000/O20</f>
-        <v>521247344896.33704</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="9"/>
         <v>895078856447.25305</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2537459242060.9248</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10161568946245.301</v>
       </c>
       <c r="X20">
@@ -18201,35 +23662,35 @@
         <v>0.3</v>
       </c>
       <c r="O21">
+        <f t="shared" si="4"/>
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="5"/>
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="P21">
+        <v>1.7757000000000001</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="6"/>
-        <v>1.7757000000000001</v>
-      </c>
-      <c r="Q21">
+        <v>0.748</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="7"/>
-        <v>0.748</v>
-      </c>
-      <c r="R21">
+        <v>0.1797</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="9"/>
+        <v>402949591006.16516</v>
+      </c>
+      <c r="T21" s="1">
         <f t="shared" si="8"/>
-        <v>0.1797</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="10"/>
-        <v>402949591006.16516</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="9"/>
         <v>866397217132.13855</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2056766762649.1157</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8561277342579.5137</v>
       </c>
       <c r="X21">
@@ -18268,35 +23729,35 @@
         <v>0.4</v>
       </c>
       <c r="O22">
+        <f t="shared" si="4"/>
+        <v>4.1216999999999997</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="5"/>
-        <v>4.1216999999999997</v>
-      </c>
-      <c r="P22">
+        <v>2.0590999999999999</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="6"/>
-        <v>2.0590999999999999</v>
-      </c>
-      <c r="Q22">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="7"/>
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="R22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="9"/>
+        <v>373258980144.48859</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="10"/>
-        <v>373258980144.48859</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="9"/>
         <v>747152415356.97083</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1949640778686.5271</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7504690431519.7012</v>
       </c>
       <c r="X22">
@@ -18335,35 +23796,35 @@
         <v>0.5</v>
       </c>
       <c r="O23">
+        <f t="shared" si="4"/>
+        <v>4.4897999999999998</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="5"/>
-        <v>4.4897999999999998</v>
-      </c>
-      <c r="P23">
+        <v>2.2027999999999999</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="6"/>
-        <v>2.2027999999999999</v>
-      </c>
-      <c r="Q23">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="7"/>
-        <v>0.83389999999999997</v>
-      </c>
-      <c r="R23">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="9"/>
+        <v>342657031150.95074</v>
+      </c>
+      <c r="T23" s="1">
         <f t="shared" si="8"/>
-        <v>0.20069999999999999</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="10"/>
-        <v>342657031150.95074</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="9"/>
         <v>698411811540.55688</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1844899314619.9048</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7665478517496.4561</v>
       </c>
     </row>
@@ -18390,35 +23851,35 @@
         <v>0.6</v>
       </c>
       <c r="O24">
+        <f t="shared" si="4"/>
+        <v>4.4771999999999998</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="5"/>
-        <v>4.4771999999999998</v>
-      </c>
-      <c r="P24">
+        <v>2.1629</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="6"/>
-        <v>2.1629</v>
-      </c>
-      <c r="Q24">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="7"/>
-        <v>0.85509999999999997</v>
-      </c>
-      <c r="R24">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="9"/>
+        <v>343621356754.56506</v>
+      </c>
+      <c r="T24" s="1">
         <f t="shared" si="8"/>
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="10"/>
-        <v>343621356754.56506</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="9"/>
         <v>711295731869.96094</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1799159792376.9602</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7162297665090.9619</v>
       </c>
     </row>
@@ -18445,35 +23906,35 @@
         <v>0.7</v>
       </c>
       <c r="O25">
+        <f t="shared" si="4"/>
+        <v>4.6215000000000002</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="5"/>
-        <v>4.6215000000000002</v>
-      </c>
-      <c r="P25">
+        <v>2.3687</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="6"/>
-        <v>2.3687</v>
-      </c>
-      <c r="Q25">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="7"/>
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="R25">
+        <v>0.218</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="9"/>
+        <v>332892251100.625</v>
+      </c>
+      <c r="T25" s="1">
         <f t="shared" si="8"/>
-        <v>0.218</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="10"/>
-        <v>332892251100.625</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="9"/>
         <v>649496153359.03174</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1814223512336.72</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7057163020465.7734</v>
       </c>
     </row>
@@ -18500,35 +23961,35 @@
         <v>0.8</v>
       </c>
       <c r="O26">
+        <f t="shared" si="4"/>
+        <v>4.6337999999999999</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="5"/>
-        <v>4.6337999999999999</v>
-      </c>
-      <c r="P26">
+        <v>2.3609</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="6"/>
-        <v>2.3609</v>
-      </c>
-      <c r="Q26">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="7"/>
-        <v>0.88190000000000002</v>
-      </c>
-      <c r="R26">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="9"/>
+        <v>332008618943.7478</v>
+      </c>
+      <c r="T26" s="1">
         <f t="shared" si="8"/>
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="10"/>
-        <v>332008618943.7478</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="9"/>
         <v>651641974866.16907</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1744485246016.032</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7202535292422.9326</v>
       </c>
     </row>
@@ -18555,35 +24016,35 @@
         <v>0.9</v>
       </c>
       <c r="O27">
+        <f t="shared" si="4"/>
+        <v>4.5753000000000004</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="5"/>
-        <v>4.5753000000000004</v>
-      </c>
-      <c r="P27">
+        <v>2.2442000000000002</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="6"/>
-        <v>2.2442000000000002</v>
-      </c>
-      <c r="Q27">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="7"/>
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="R27">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="9"/>
+        <v>336253696689.078</v>
+      </c>
+      <c r="T27" s="1">
         <f t="shared" si="8"/>
-        <v>0.20480000000000001</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="10"/>
-        <v>336253696689.078</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="9"/>
         <v>685527822146.66187</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1758643733952.376</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7512019230769.2314</v>
       </c>
     </row>
@@ -18611,19 +24072,19 @@
       </c>
       <c r="O28" s="1">
         <f>O30/($F$17/1000000)</f>
-        <v>1733907603531.6233</v>
+        <v>9632820019620.1289</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" ref="P28:R28" si="11">P30/($F$17/1000000)</f>
-        <v>1357879448548.8616</v>
+        <f t="shared" ref="P28:R28" si="10">P30/($F$17/1000000)</f>
+        <v>7543774714160.3408</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="11"/>
-        <v>873674373872.52319</v>
+        <f t="shared" si="10"/>
+        <v>4853746521514.0176</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="11"/>
-        <v>417422200850.20551</v>
+        <f t="shared" si="10"/>
+        <v>2319012226945.5859</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -18653,15 +24114,15 @@
         <v>0.70381149113021568</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29" si="12">P30/(MAX(P32:P40)/1000)/10^12</f>
+        <f t="shared" ref="P29" si="11">P30/(MAX(P32:P40)/1000)/10^12</f>
         <v>1.0784275663340797</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29" si="13">Q30/(MAX(Q32:Q40)/1000)/10^12</f>
+        <f t="shared" ref="Q29" si="12">Q30/(MAX(Q32:Q40)/1000)/10^12</f>
         <v>1.7902859086596128</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29" si="14">R30/(MAX(R32:R40)/1000)/10^12</f>
+        <f t="shared" ref="R29" si="13">R30/(MAX(R32:R40)/1000)/10^12</f>
         <v>3.2122321801419806</v>
       </c>
     </row>
@@ -18774,19 +24235,19 @@
         <v>0.1</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O40" si="15">F20</f>
+        <f t="shared" ref="O32:O40" si="14">F20</f>
         <v>1.06</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P40" si="16">F31</f>
+        <f t="shared" ref="P32:P40" si="15">F31</f>
         <v>0.4536</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q40" si="17">F42</f>
+        <f t="shared" ref="Q32:Q40" si="16">F42</f>
         <v>0.17100000000000001</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32:R40" si="18">F53</f>
+        <f t="shared" ref="R32:R40" si="17">F53</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="S32" s="1">
@@ -18794,15 +24255,15 @@
         <v>1451378809869.376</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" ref="T32:T40" si="19">$O$17*1000/P32</f>
+        <f t="shared" ref="T32:T40" si="18">$O$17*1000/P32</f>
         <v>3391670058336.7251</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ref="U32:U40" si="20">$O$17*1000/Q32</f>
+        <f t="shared" ref="U32:U40" si="19">$O$17*1000/Q32</f>
         <v>8996851102114.2598</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" ref="V32:V40" si="21">$O$17*1000/R32</f>
+        <f t="shared" ref="V32:V40" si="20">$O$17*1000/R32</f>
         <v>33014196104324.859</v>
       </c>
     </row>
@@ -18829,35 +24290,35 @@
         <v>0.2</v>
       </c>
       <c r="O33">
+        <f t="shared" si="14"/>
+        <v>1.4232</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="15"/>
-        <v>1.4232</v>
-      </c>
-      <c r="P33">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="16"/>
-        <v>0.69289999999999996</v>
-      </c>
-      <c r="Q33">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="17"/>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="R33">
+        <v>0.05</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ref="S33:S40" si="21">$O$17*1000/O33</f>
+        <v>1080987590262.4639</v>
+      </c>
+      <c r="T33" s="1">
         <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" ref="S33:S40" si="22">$O$17*1000/O33</f>
-        <v>1080987590262.4639</v>
-      </c>
-      <c r="T33" s="1">
+        <v>2220322612875.6509</v>
+      </c>
+      <c r="U33" s="1">
         <f t="shared" si="19"/>
-        <v>2220322612875.6509</v>
-      </c>
-      <c r="U33" s="1">
+        <v>5286809410520.751</v>
+      </c>
+      <c r="V33" s="1">
         <f t="shared" si="20"/>
-        <v>5286809410520.751</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="21"/>
         <v>30769230769230.77</v>
       </c>
     </row>
@@ -18884,35 +24345,35 @@
         <v>0.3</v>
       </c>
       <c r="O34">
+        <f t="shared" si="14"/>
+        <v>1.8467</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="15"/>
-        <v>1.8467</v>
-      </c>
-      <c r="P34">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="16"/>
-        <v>0.87939999999999996</v>
-      </c>
-      <c r="Q34">
+        <v>0.35</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="17"/>
-        <v>0.35</v>
-      </c>
-      <c r="R34">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="21"/>
+        <v>833086878465.12085</v>
+      </c>
+      <c r="T34" s="1">
         <f t="shared" si="18"/>
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" si="22"/>
-        <v>833086878465.12085</v>
-      </c>
-      <c r="T34" s="1">
+        <v>1749444551354.9451</v>
+      </c>
+      <c r="U34" s="1">
         <f t="shared" si="19"/>
-        <v>1749444551354.9451</v>
-      </c>
-      <c r="U34" s="1">
+        <v>4395604395604.396</v>
+      </c>
+      <c r="V34" s="1">
         <f t="shared" si="20"/>
-        <v>4395604395604.396</v>
-      </c>
-      <c r="V34" s="1">
-        <f t="shared" si="21"/>
         <v>18784634169249.555</v>
       </c>
     </row>
@@ -18939,35 +24400,35 @@
         <v>0.4</v>
       </c>
       <c r="O35">
+        <f t="shared" si="14"/>
+        <v>1.7499</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="15"/>
-        <v>1.7499</v>
-      </c>
-      <c r="P35">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="16"/>
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="Q35">
+        <v>0.3826</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="17"/>
-        <v>0.3826</v>
-      </c>
-      <c r="R35">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="21"/>
+        <v>879171117470.44897</v>
+      </c>
+      <c r="T35" s="1">
         <f t="shared" si="18"/>
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" si="22"/>
-        <v>879171117470.44897</v>
-      </c>
-      <c r="T35" s="1">
+        <v>1544329992432.7832</v>
+      </c>
+      <c r="U35" s="1">
         <f t="shared" si="19"/>
-        <v>1544329992432.7832</v>
-      </c>
-      <c r="U35" s="1">
+        <v>4021070408942.8608</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" si="20"/>
-        <v>4021070408942.8608</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" si="21"/>
         <v>18602920658543.395</v>
       </c>
     </row>
@@ -18994,35 +24455,35 @@
         <v>0.5</v>
       </c>
       <c r="O36">
+        <f t="shared" si="14"/>
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="15"/>
-        <v>1.9470000000000001</v>
-      </c>
-      <c r="P36">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="16"/>
-        <v>0.97689999999999999</v>
-      </c>
-      <c r="Q36">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="17"/>
-        <v>0.38579999999999998</v>
-      </c>
-      <c r="R36">
+        <v>0.1013</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="21"/>
+        <v>790170281695.70544</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" si="18"/>
-        <v>0.1013</v>
-      </c>
-      <c r="S36" s="1">
-        <f t="shared" si="22"/>
-        <v>790170281695.70544</v>
-      </c>
-      <c r="T36" s="1">
+        <v>1574840350559.4622</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" si="19"/>
-        <v>1574840350559.4622</v>
-      </c>
-      <c r="U36" s="1">
+        <v>3987717829086.4146</v>
+      </c>
+      <c r="V36" s="1">
         <f t="shared" si="20"/>
-        <v>3987717829086.4146</v>
-      </c>
-      <c r="V36" s="1">
-        <f t="shared" si="21"/>
         <v>15187182018376.49</v>
       </c>
     </row>
@@ -19049,35 +24510,35 @@
         <v>0.6</v>
       </c>
       <c r="O37">
+        <f t="shared" si="14"/>
+        <v>2.0891999999999999</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="15"/>
-        <v>2.0891999999999999</v>
-      </c>
-      <c r="P37">
+        <v>1.0102</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="16"/>
-        <v>1.0102</v>
-      </c>
-      <c r="Q37">
+        <v>0.433</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="17"/>
-        <v>0.433</v>
-      </c>
-      <c r="R37">
+        <v>0.1153</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="21"/>
+        <v>736387870219.00183</v>
+      </c>
+      <c r="T37" s="1">
         <f t="shared" si="18"/>
-        <v>0.1153</v>
-      </c>
-      <c r="S37" s="1">
-        <f t="shared" si="22"/>
-        <v>736387870219.00183</v>
-      </c>
-      <c r="T37" s="1">
+        <v>1522927676164.6592</v>
+      </c>
+      <c r="U37" s="1">
         <f t="shared" si="19"/>
-        <v>1522927676164.6592</v>
-      </c>
-      <c r="U37" s="1">
+        <v>3553028957186.0015</v>
+      </c>
+      <c r="V37" s="1">
         <f t="shared" si="20"/>
-        <v>3553028957186.0015</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" si="21"/>
         <v>13343118286743.613</v>
       </c>
     </row>
@@ -19104,35 +24565,35 @@
         <v>0.7</v>
       </c>
       <c r="O38">
+        <f t="shared" si="14"/>
+        <v>2.1818</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="15"/>
-        <v>2.1818</v>
-      </c>
-      <c r="P38">
+        <v>1.1172</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="16"/>
-        <v>1.1172</v>
-      </c>
-      <c r="Q38">
+        <v>0.432</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="17"/>
-        <v>0.432</v>
-      </c>
-      <c r="R38">
+        <v>0.1153</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="21"/>
+        <v>705134081245.54895</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="18"/>
-        <v>0.1153</v>
-      </c>
-      <c r="S38" s="1">
-        <f t="shared" si="22"/>
-        <v>705134081245.54895</v>
-      </c>
-      <c r="T38" s="1">
+        <v>1377069046241.9788</v>
+      </c>
+      <c r="U38" s="1">
         <f t="shared" si="19"/>
-        <v>1377069046241.9788</v>
-      </c>
-      <c r="U38" s="1">
+        <v>3561253561253.5615</v>
+      </c>
+      <c r="V38" s="1">
         <f t="shared" si="20"/>
-        <v>3561253561253.5615</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="21"/>
         <v>13343118286743.613</v>
       </c>
       <c r="AB38" t="s">
@@ -19162,35 +24623,35 @@
         <v>0.8</v>
       </c>
       <c r="O39">
+        <f t="shared" si="14"/>
+        <v>2.1859000000000002</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="15"/>
-        <v>2.1859000000000002</v>
-      </c>
-      <c r="P39">
+        <v>1.0952</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="16"/>
-        <v>1.0952</v>
-      </c>
-      <c r="Q39">
+        <v>0.4173</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="17"/>
-        <v>0.4173</v>
-      </c>
-      <c r="R39">
+        <v>0.1094</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="21"/>
+        <v>703811491130.2157</v>
+      </c>
+      <c r="T39" s="1">
         <f t="shared" si="18"/>
-        <v>0.1094</v>
-      </c>
-      <c r="S39" s="1">
-        <f t="shared" si="22"/>
-        <v>703811491130.2157</v>
-      </c>
-      <c r="T39" s="1">
+        <v>1404731134460.8643</v>
+      </c>
+      <c r="U39" s="1">
         <f t="shared" si="19"/>
-        <v>1404731134460.8643</v>
-      </c>
-      <c r="U39" s="1">
+        <v>3686703902376.0811</v>
+      </c>
+      <c r="V39" s="1">
         <f t="shared" si="20"/>
-        <v>3686703902376.0811</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" si="21"/>
         <v>14062719729995.783</v>
       </c>
       <c r="AB39">
@@ -19217,35 +24678,35 @@
         <v>0.9</v>
       </c>
       <c r="O40">
+        <f t="shared" si="14"/>
+        <v>2.0615999999999999</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="15"/>
-        <v>2.0615999999999999</v>
-      </c>
-      <c r="P40">
+        <v>1.0846</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="16"/>
-        <v>1.0846</v>
-      </c>
-      <c r="Q40">
+        <v>0.4088</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="17"/>
-        <v>0.4088</v>
-      </c>
-      <c r="R40">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="21"/>
+        <v>746246380705.05371</v>
+      </c>
+      <c r="T40" s="1">
         <f t="shared" si="18"/>
-        <v>0.10059999999999999</v>
-      </c>
-      <c r="S40" s="1">
-        <f t="shared" si="22"/>
-        <v>746246380705.05371</v>
-      </c>
-      <c r="T40" s="1">
+        <v>1418459836309.7349</v>
+      </c>
+      <c r="U40" s="1">
         <f t="shared" si="19"/>
-        <v>1418459836309.7349</v>
-      </c>
-      <c r="U40" s="1">
+        <v>3763359927743.4897</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="20"/>
-        <v>3763359927743.4897</v>
-      </c>
-      <c r="V40" s="1">
-        <f t="shared" si="21"/>
         <v>15292858235204.162</v>
       </c>
       <c r="AA40">
@@ -19297,19 +24758,19 @@
       </c>
       <c r="O41" s="1">
         <f>O43/($J$17/1000000)</f>
-        <v>3764833443768.4478</v>
+        <v>20915741354269.156</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" ref="P41:R41" si="23">P43/($J$17/1000000)</f>
-        <v>2948363540300.5918</v>
+        <f t="shared" ref="P41:R41" si="22">P43/($J$17/1000000)</f>
+        <v>16379797446114.398</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="23"/>
-        <v>1897009099573.2488</v>
+        <f t="shared" si="22"/>
+        <v>10538939442073.605</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="23"/>
-        <v>906348792018.32996</v>
+        <f t="shared" si="22"/>
+        <v>5035271066768.5</v>
       </c>
       <c r="AA41">
         <v>648254173719.67212</v>
@@ -19354,15 +24815,15 @@
         <v>1.5256461111280628</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:R42" si="24">P43/(MAX(P45:P53)/1000)/10^12</f>
+        <f t="shared" ref="P42:R42" si="23">P43/(MAX(P45:P53)/1000)/10^12</f>
         <v>2.4334867241131768</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3.9032920365035868</v>
       </c>
       <c r="R42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>7.9138968027856915</v>
       </c>
       <c r="AA42">
@@ -19496,19 +24957,19 @@
         <v>0.1</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O53" si="25">J20</f>
+        <f t="shared" ref="O45:O53" si="24">J20</f>
         <v>0.35149999999999998</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45:P53" si="26">J31</f>
+        <f t="shared" ref="P45:P53" si="25">J31</f>
         <v>0.15629999999999999</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:Q53" si="27">J42</f>
+        <f t="shared" ref="Q45:Q53" si="26">J42</f>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="R45">
-        <f t="shared" ref="R45:R53" si="28">J53</f>
+        <f t="shared" ref="R45:R53" si="27">J53</f>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="S45" s="1">
@@ -19516,15 +24977,15 @@
         <v>4376846482109.6406</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" ref="T45:T53" si="29">$O$17*1000/P45</f>
+        <f t="shared" ref="T45:T53" si="28">$O$17*1000/P45</f>
         <v>9843004084846.6953</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" ref="U45:U53" si="30">$O$17*1000/Q45</f>
+        <f t="shared" ref="U45:U53" si="29">$O$17*1000/Q45</f>
         <v>17482517482517.484</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" ref="V45:V53" si="31">$O$17*1000/R45</f>
+        <f t="shared" ref="V45:V53" si="30">$O$17*1000/R45</f>
         <v>91033227127901.703</v>
       </c>
     </row>
@@ -19551,35 +25012,35 @@
         <v>0.2</v>
       </c>
       <c r="O46">
+        <f t="shared" si="24"/>
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="25"/>
-        <v>0.58409999999999995</v>
-      </c>
-      <c r="P46">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="26"/>
-        <v>0.28089999999999998</v>
-      </c>
-      <c r="Q46">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="27"/>
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="R46">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" ref="S46:S53" si="31">$O$17*1000/O46</f>
+        <v>2633900938985.6851</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="28"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="S46" s="1">
-        <f t="shared" ref="S46:S53" si="32">$O$17*1000/O46</f>
-        <v>2633900938985.6851</v>
-      </c>
-      <c r="T46" s="1">
+        <v>5476901169318.4004</v>
+      </c>
+      <c r="U46" s="1">
         <f t="shared" si="29"/>
-        <v>5476901169318.4004</v>
-      </c>
-      <c r="U46" s="1">
+        <v>13093289689034.371</v>
+      </c>
+      <c r="V46" s="1">
         <f t="shared" si="30"/>
-        <v>13093289689034.371</v>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="31"/>
         <v>58055152394775.039</v>
       </c>
     </row>
@@ -19606,35 +25067,35 @@
         <v>0.3</v>
       </c>
       <c r="O47">
+        <f t="shared" si="24"/>
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="25"/>
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="P47">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="26"/>
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="Q47">
+        <v>0.1394</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="27"/>
-        <v>0.1394</v>
-      </c>
-      <c r="R47">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="31"/>
+        <v>2211068609458.9517</v>
+      </c>
+      <c r="T47" s="1">
         <f t="shared" si="28"/>
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="S47" s="1">
-        <f t="shared" si="32"/>
-        <v>2211068609458.9517</v>
-      </c>
-      <c r="T47" s="1">
+        <v>3823214558801.0405</v>
+      </c>
+      <c r="U47" s="1">
         <f t="shared" si="29"/>
-        <v>3823214558801.0405</v>
-      </c>
-      <c r="U47" s="1">
+        <v>11036309458117.207</v>
+      </c>
+      <c r="V47" s="1">
         <f t="shared" si="30"/>
-        <v>11036309458117.207</v>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="31"/>
         <v>48379293662312.531</v>
       </c>
       <c r="Z47" t="s">
@@ -19664,35 +25125,35 @@
         <v>0.4</v>
       </c>
       <c r="O48">
+        <f t="shared" si="24"/>
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="25"/>
-        <v>0.80410000000000004</v>
-      </c>
-      <c r="P48">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="26"/>
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="Q48">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="27"/>
-        <v>0.16450000000000001</v>
-      </c>
-      <c r="R48">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="31"/>
+        <v>1913271407115.4563</v>
+      </c>
+      <c r="T48" s="1">
         <f t="shared" si="28"/>
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="S48" s="1">
-        <f t="shared" si="32"/>
-        <v>1913271407115.4563</v>
-      </c>
-      <c r="T48" s="1">
+        <v>3605487552054.2266</v>
+      </c>
+      <c r="U48" s="1">
         <f t="shared" si="29"/>
-        <v>3605487552054.2266</v>
-      </c>
-      <c r="U48" s="1">
+        <v>9352349777881.6934</v>
+      </c>
+      <c r="V48" s="1">
         <f t="shared" si="30"/>
-        <v>9352349777881.6934</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" si="31"/>
         <v>46061722708429.297</v>
       </c>
       <c r="AA48">
@@ -19728,35 +25189,35 @@
         <v>0.5</v>
       </c>
       <c r="O49">
+        <f t="shared" si="24"/>
+        <v>0.8579</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="25"/>
-        <v>0.8579</v>
-      </c>
-      <c r="P49">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="26"/>
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="Q49">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="27"/>
-        <v>0.15870000000000001</v>
-      </c>
-      <c r="R49">
+        <v>4.19E-2</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="31"/>
+        <v>1793287724048.8853</v>
+      </c>
+      <c r="T49" s="1">
         <f t="shared" si="28"/>
-        <v>4.19E-2</v>
-      </c>
-      <c r="S49" s="1">
-        <f t="shared" si="32"/>
-        <v>1793287724048.8853</v>
-      </c>
-      <c r="T49" s="1">
+        <v>3558782184736.3833</v>
+      </c>
+      <c r="U49" s="1">
         <f t="shared" si="29"/>
-        <v>3558782184736.3833</v>
-      </c>
-      <c r="U49" s="1">
+        <v>9694149580728.0313</v>
+      </c>
+      <c r="V49" s="1">
         <f t="shared" si="30"/>
-        <v>9694149580728.0313</v>
-      </c>
-      <c r="V49" s="1">
-        <f t="shared" si="31"/>
         <v>36717459151826.695</v>
       </c>
       <c r="Z49">
@@ -19795,35 +25256,35 @@
         <v>0.6</v>
       </c>
       <c r="O50">
+        <f t="shared" si="24"/>
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="25"/>
-        <v>0.91569999999999996</v>
-      </c>
-      <c r="P50">
+        <v>0.4783</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="26"/>
-        <v>0.4783</v>
-      </c>
-      <c r="Q50">
+        <v>0.1704</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="27"/>
-        <v>0.1704</v>
-      </c>
-      <c r="R50">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="31"/>
+        <v>1680093413193.7737</v>
+      </c>
+      <c r="T50" s="1">
         <f t="shared" si="28"/>
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="S50" s="1">
-        <f t="shared" si="32"/>
-        <v>1680093413193.7737</v>
-      </c>
-      <c r="T50" s="1">
+        <v>3216520046961.1929</v>
+      </c>
+      <c r="U50" s="1">
         <f t="shared" si="29"/>
-        <v>3216520046961.1929</v>
-      </c>
-      <c r="U50" s="1">
+        <v>9028530155290.7188</v>
+      </c>
+      <c r="V50" s="1">
         <f t="shared" si="30"/>
-        <v>9028530155290.7188</v>
-      </c>
-      <c r="V50" s="1">
-        <f t="shared" si="31"/>
         <v>33664366268305.004</v>
       </c>
       <c r="Z50">
@@ -19850,35 +25311,35 @@
         <v>0.7</v>
       </c>
       <c r="O51">
+        <f t="shared" si="24"/>
+        <v>1.0044</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="25"/>
-        <v>1.0044</v>
-      </c>
-      <c r="P51">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="26"/>
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="Q51">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="27"/>
-        <v>0.19089999999999999</v>
-      </c>
-      <c r="R51">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="31"/>
+        <v>1531721961829.4888</v>
+      </c>
+      <c r="T51" s="1">
         <f t="shared" si="28"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="S51" s="1">
-        <f t="shared" si="32"/>
-        <v>1531721961829.4888</v>
-      </c>
-      <c r="T51" s="1">
+        <v>3107375355406.0566</v>
+      </c>
+      <c r="U51" s="1">
         <f t="shared" si="29"/>
-        <v>3107375355406.0566</v>
-      </c>
-      <c r="U51" s="1">
+        <v>8058991820123.3037</v>
+      </c>
+      <c r="V51" s="1">
         <f t="shared" si="30"/>
-        <v>8058991820123.3037</v>
-      </c>
-      <c r="V51" s="1">
-        <f t="shared" si="31"/>
         <v>32873109796186.723</v>
       </c>
       <c r="Z51">
@@ -19926,35 +25387,35 @@
         <v>0.8</v>
       </c>
       <c r="O52">
+        <f t="shared" si="24"/>
+        <v>1.0084</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="25"/>
-        <v>1.0084</v>
-      </c>
-      <c r="P52">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="26"/>
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="Q52">
+        <v>0.1986</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="27"/>
-        <v>0.1986</v>
-      </c>
-      <c r="R52">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="31"/>
+        <v>1525646111128.063</v>
+      </c>
+      <c r="T52" s="1">
         <f t="shared" si="28"/>
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="S52" s="1">
-        <f t="shared" si="32"/>
-        <v>1525646111128.063</v>
-      </c>
-      <c r="T52" s="1">
+        <v>3211819495744.3394</v>
+      </c>
+      <c r="U52" s="1">
         <f t="shared" si="29"/>
-        <v>3211819495744.3394</v>
-      </c>
-      <c r="U52" s="1">
+        <v>7746533426291.7354</v>
+      </c>
+      <c r="V52" s="1">
         <f t="shared" si="30"/>
-        <v>7746533426291.7354</v>
-      </c>
-      <c r="V52" s="1">
-        <f t="shared" si="31"/>
         <v>35945363048166.789</v>
       </c>
     </row>
@@ -19981,35 +25442,35 @@
         <v>0.9</v>
       </c>
       <c r="O53">
+        <f t="shared" si="24"/>
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="25"/>
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="P53">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="26"/>
-        <v>0.46679999999999999</v>
-      </c>
-      <c r="Q53">
+        <v>0.1767</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="27"/>
-        <v>0.1767</v>
-      </c>
-      <c r="R53">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="31"/>
+        <v>1658003597867.8076</v>
+      </c>
+      <c r="T53" s="1">
         <f t="shared" si="28"/>
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="32"/>
-        <v>1658003597867.8076</v>
-      </c>
-      <c r="T53" s="1">
+        <v>3295761650517.4351</v>
+      </c>
+      <c r="U53" s="1">
         <f t="shared" si="29"/>
-        <v>3295761650517.4351</v>
-      </c>
-      <c r="U53" s="1">
+        <v>8706630098820.2529</v>
+      </c>
+      <c r="V53" s="1">
         <f t="shared" si="30"/>
-        <v>8706630098820.2529</v>
-      </c>
-      <c r="V53" s="1">
-        <f t="shared" si="31"/>
         <v>34417484081913.617</v>
       </c>
     </row>
@@ -20299,7 +25760,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -20317,7 +25778,7 @@
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -20348,8 +25809,11 @@
       <c r="J70" t="s">
         <v>14</v>
       </c>
+      <c r="K70" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.1</v>
       </c>
@@ -20389,8 +25853,12 @@
         <f>2/$J$69/I71/10^9</f>
         <v>0.6506948691773865</v>
       </c>
+      <c r="K71">
+        <f>2/J69/$B$17*1000000</f>
+        <v>2299363094817.6401</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.3</v>
       </c>
@@ -20419,11 +25887,11 @@
         <v>1.8540000000000001</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J75" si="33">2/$J$69/I72/10^9</f>
+        <f t="shared" ref="J72:J75" si="32">2/$J$69/I72/10^9</f>
         <v>0.41490332752468667</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.5</v>
       </c>
@@ -20452,11 +25920,11 @@
         <v>2.222</v>
       </c>
       <c r="J73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.34618846500034617</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.7</v>
       </c>
@@ -20485,11 +25953,11 @@
         <v>2.327</v>
       </c>
       <c r="J74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.33056758454265972</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.9</v>
       </c>
@@ -20518,11 +25986,47 @@
         <v>2.1930000000000001</v>
       </c>
       <c r="J75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.35076642463783358</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76">
+        <f>AVERAGE(B71:B75:B75)</f>
+        <v>0.15884641999999999</v>
+      </c>
+      <c r="C76">
+        <f>AVERAGE(C71:C75:C75)</f>
+        <v>0.1854556</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(D71:D75:D75)</f>
+        <v>0.19005476000000002</v>
+      </c>
+      <c r="E76">
+        <v>0.17901094308090909</v>
+      </c>
+      <c r="F76">
+        <f>AVERAGE(F71:F75:F75)</f>
+        <v>0.15970582</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(G71:G75:G75)</f>
+        <v>0.12381874</v>
+      </c>
+      <c r="H76">
+        <f>AVERAGE(H71:H75:H75)</f>
+        <v>7.4075600000000005E-2</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(I71:I75:I75)</f>
+        <v>1.955633636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -20539,7 +26043,7 @@
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -20571,7 +26075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.1</v>
       </c>
@@ -20633,7 +26137,7 @@
         <v>1.8353999999999999</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:J84" si="34">2/$J$69/I81/10^9</f>
+        <f t="shared" ref="J81:J84" si="33">2/$J$69/I81/10^9</f>
         <v>0.41910797059538479</v>
       </c>
     </row>
@@ -20666,7 +26170,7 @@
         <v>2.1978</v>
       </c>
       <c r="J82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.35000035000035001</v>
       </c>
     </row>
@@ -20699,7 +26203,7 @@
         <v>2.3168000000000002</v>
       </c>
       <c r="J83">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.33202294942626431</v>
       </c>
     </row>
@@ -20732,7 +26236,7 @@
         <v>2.1903000000000001</v>
       </c>
       <c r="J84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.35119881716238371</v>
       </c>
     </row>
@@ -20847,7 +26351,7 @@
         <v>1.8978999999999999</v>
       </c>
       <c r="J90">
-        <f t="shared" ref="J90:J93" si="35">2/$J$69/I90/10^9</f>
+        <f t="shared" ref="J90:J93" si="34">2/$J$69/I90/10^9</f>
         <v>0.40530626968268568</v>
       </c>
     </row>
@@ -20880,7 +26384,7 @@
         <v>2.1827000000000001</v>
       </c>
       <c r="J91">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.35242166547430664</v>
       </c>
     </row>
@@ -20913,7 +26417,7 @@
         <v>2.3304</v>
       </c>
       <c r="J92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.33008529403997988</v>
       </c>
     </row>
@@ -20946,92 +26450,1293 @@
         <v>2.1796000000000002</v>
       </c>
       <c r="J93">
+        <f t="shared" si="34"/>
+        <v>0.35292290752008121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0.1</v>
+      </c>
+      <c r="C98">
+        <v>1.1821681800000001</v>
+      </c>
+      <c r="D98">
+        <v>1.0374000000000001</v>
+      </c>
+      <c r="E98">
+        <v>1.0599000000000001</v>
+      </c>
+      <c r="I98" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" t="s">
+        <v>36</v>
+      </c>
+      <c r="N98" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0.3</v>
+      </c>
+      <c r="C99">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="D99">
+        <v>1.8353999999999999</v>
+      </c>
+      <c r="E99">
+        <v>1.8978999999999999</v>
+      </c>
+      <c r="H99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I99">
+        <v>0.15884641999999999</v>
+      </c>
+      <c r="J99">
+        <v>0.1854556</v>
+      </c>
+      <c r="K99">
+        <v>0.19005476000000002</v>
+      </c>
+      <c r="L99">
+        <v>0.17901094308090909</v>
+      </c>
+      <c r="M99">
+        <v>0.15970582</v>
+      </c>
+      <c r="N99">
+        <v>0.12381874</v>
+      </c>
+      <c r="O99">
+        <v>7.4075600000000005E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100">
+        <v>2.222</v>
+      </c>
+      <c r="D100">
+        <v>2.1978</v>
+      </c>
+      <c r="E100">
+        <v>2.1827000000000001</v>
+      </c>
+      <c r="H100" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="J100">
+        <v>0.16920000000000002</v>
+      </c>
+      <c r="K100">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L100">
+        <v>0.17901094308090909</v>
+      </c>
+      <c r="M100">
+        <v>0.1802</v>
+      </c>
+      <c r="N100">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="O100">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0.7</v>
+      </c>
+      <c r="C101">
+        <v>2.327</v>
+      </c>
+      <c r="D101">
+        <v>2.3168000000000002</v>
+      </c>
+      <c r="E101">
+        <v>2.3304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0.9</v>
+      </c>
+      <c r="C102">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="D102">
+        <v>2.1903000000000001</v>
+      </c>
+      <c r="E102">
+        <v>2.1796000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <f>((0.42+0.51)*3)*64
++((0.25+0.75)*7)*16+((0.25+0.75)*7)*16
++((0.25+0.75)*21)*16
++((0.25+0.75)*28)*8
++((0.25+0.75)*42)*4
++((0.25+0.75)*49)*2
++((0.25+0.75)*63)*1</f>
+        <v>1291.56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106">
+        <f>H105*0.18</f>
+        <v>232.48079999999999</v>
+      </c>
+      <c r="I106" t="s">
+        <v>51</v>
+      </c>
+      <c r="J106">
+        <f>1-H106/B17</f>
+        <v>0.30507489669421484</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107">
+        <f>2/J107/H106*10^6</f>
+        <v>2966503781877.0117</v>
+      </c>
+      <c r="I107" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107">
+        <v>2.8999999999999999E-9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.1</v>
+      </c>
+      <c r="B109">
+        <v>0.05</v>
+      </c>
+      <c r="C109">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D109">
+        <v>0.214</v>
+      </c>
+      <c r="E109">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F109">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G109">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H109">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I109">
+        <v>1.5353000000000001</v>
+      </c>
+      <c r="J109">
+        <f>2/$J$107/I109/10^9</f>
+        <v>0.44919896594398034</v>
+      </c>
+      <c r="K109">
+        <f>I109/I71-1</f>
+        <v>0.29871538244245421</v>
+      </c>
+      <c r="O109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.3</v>
+      </c>
+      <c r="B110">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C110">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D110">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E110">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G110">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H110">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I110">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110:J113" si="35">2/$J$107/I110/10^9</f>
+        <v>0.31163812580831135</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ref="K110:K113" si="36">I110/I72-1</f>
+        <v>0.19363538295577132</v>
+      </c>
+      <c r="N110" t="s">
+        <v>50</v>
+      </c>
+      <c r="O110">
+        <f>((0.25+0.255)*3)*64*0.18
++((0.25*0.25+0.75*0.18)*14)*16
++((0.25*0.25+0.75*0.18)*21)*16
++((0.25+0.75)*28)*8*0.18
++((0.25+0.75)*42)*4*0.18
++((0.325+1)*49)*2*0.18
++((0.325+1)*63)*1*0.18</f>
+        <v>237.01129999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.5</v>
+      </c>
+      <c r="B111">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C111">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D111">
+        <v>0.378</v>
+      </c>
+      <c r="E111">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F111">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G111">
+        <v>0.09</v>
+      </c>
+      <c r="H111">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I111">
+        <v>2.5785</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="35"/>
-        <v>0.35292290752008121</v>
+        <v>0.26746370851805046</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="36"/>
+        <v>0.1604410441044104</v>
+      </c>
+      <c r="N111" t="s">
+        <v>59</v>
+      </c>
+      <c r="O111">
+        <f>2/3/2.313</f>
+        <v>0.28822596915982124</v>
       </c>
     </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F97" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.7</v>
+      </c>
+      <c r="B112">
+        <v>0.252</v>
+      </c>
+      <c r="C112">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D112">
+        <v>0.38</v>
+      </c>
+      <c r="E112">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F112">
+        <v>0.191</v>
+      </c>
+      <c r="G112">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H112">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I112">
+        <v>2.6120999999999999</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="35"/>
+        <v>0.26402326573017615</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="36"/>
+        <v>0.12251826385904585</v>
+      </c>
+      <c r="N112" t="s">
+        <v>60</v>
+      </c>
+      <c r="O112">
+        <f>2/3/O110*10^15</f>
+        <v>2812805409137.314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.9</v>
+      </c>
+      <c r="B113">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C113">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D113">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E113">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F113">
+        <v>0.184</v>
+      </c>
+      <c r="G113">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H113">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I113">
+        <v>2.4556</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="35"/>
+        <v>0.2808499643320545</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="36"/>
+        <v>0.11974464204286361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114">
+        <f>AVERAGE(B109:B113:B113)</f>
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="C114">
+        <f>AVERAGE(C109:C113:C113)</f>
+        <v>0.16920000000000002</v>
+      </c>
+      <c r="D114">
+        <f>AVERAGE(D109:D113:D113)</f>
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="E114">
+        <v>0.17901094308090909</v>
+      </c>
+      <c r="F114">
+        <f>AVERAGE(F109:F113:F113)</f>
+        <v>0.1802</v>
+      </c>
+      <c r="G114">
+        <f>AVERAGE(G109:G113:G113)</f>
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="H114">
+        <f>AVERAGE(H109:H113:H113)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I114">
+        <f>AVERAGE(I109:I113:I113)</f>
+        <v>2.2789000000000001</v>
+      </c>
+      <c r="J114">
+        <f>AVERAGE(J109:J113:J113)</f>
+        <v>0.31463480606651462</v>
+      </c>
+      <c r="K114">
+        <f>AVERAGE(K109:K113:K113)</f>
+        <v>0.17901094308090909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118">
+        <f>((0.25+0.255)*3)*64*0.18
++((0.25*0.25+0.75*0.18)*14)*32
++((0.25*0.25+0.75*0.18)*14)*2*16
++((0.25+0.75)*14)*3*8*0.18
++((0.25+0.75)*42)*4*4*0.18
++((0.325+1)*49)*5*2*0.18
++((0.325+1)*63)*6*1*0.18</f>
+        <v>582.87080000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119">
+        <f>2/J119/H118/10^6</f>
+        <v>1.2708489441240505</v>
+      </c>
+      <c r="I119" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119">
+        <v>2.7000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>27</v>
       </c>
-      <c r="G97" s="2">
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" t="s">
+        <v>39</v>
+      </c>
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.1</v>
+      </c>
+      <c r="B121">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C121">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D121">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E121">
+        <v>0.123</v>
+      </c>
+      <c r="F121">
+        <v>0.13</v>
+      </c>
+      <c r="G121">
+        <v>0.129</v>
+      </c>
+      <c r="H121">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I121">
+        <v>1.119</v>
+      </c>
+      <c r="J121">
+        <f>2/$J$119/I121/10^9</f>
+        <v>0.66196670307483529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.3</v>
+      </c>
+      <c r="B122">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C122">
+        <v>0.125</v>
+      </c>
+      <c r="D122">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E122">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F122">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G122">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H122">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I122">
+        <v>1.8121</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J122:J125" si="37">2/$J$119/I122/10^9</f>
+        <v>0.40877475897618271</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>0.5</v>
       </c>
-      <c r="H97" s="2">
+      <c r="B123">
+        <v>0.121</v>
+      </c>
+      <c r="C123">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D123">
+        <v>0.185</v>
+      </c>
+      <c r="E123">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F123">
+        <v>0.185</v>
+      </c>
+      <c r="G123">
+        <v>0.17</v>
+      </c>
+      <c r="H123">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I123">
+        <v>2.0457000000000001</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="37"/>
+        <v>0.36209646611953883</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>0.7</v>
       </c>
-      <c r="I97" s="2">
+      <c r="B124">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C124">
+        <v>0.185</v>
+      </c>
+      <c r="D124">
+        <v>0.189</v>
+      </c>
+      <c r="E124">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F124">
+        <v>0.186</v>
+      </c>
+      <c r="G124">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H124">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I124">
+        <v>2.0722999999999998</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="37"/>
+        <v>0.35744860335894452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>0.9</v>
       </c>
+      <c r="B125">
+        <v>0.22</v>
+      </c>
+      <c r="C125">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D125">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E125">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F125">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G125">
+        <v>0.16</v>
+      </c>
+      <c r="H125">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I125">
+        <v>0.2</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="37"/>
+        <v>3.7037037037037028</v>
+      </c>
     </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F98">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>61</v>
+      </c>
+      <c r="G130" t="s">
+        <v>49</v>
+      </c>
+      <c r="H130">
+        <f>64*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18</f>
+        <v>193.42079999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131">
+        <f>2/H130/J131*10^6</f>
+        <v>4495717199966.624</v>
+      </c>
+      <c r="I131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J131">
+        <v>2.2999999999999999E-9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J132" t="s">
+        <v>63</v>
+      </c>
+      <c r="K132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L132" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>0.1</v>
       </c>
-      <c r="G98">
-        <v>1.1821681800000001</v>
-      </c>
-      <c r="H98">
-        <v>1.0374000000000001</v>
-      </c>
-      <c r="I98">
-        <v>1.0599000000000001</v>
+      <c r="B133">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C133">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D133">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E133">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F133">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G133">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H133">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I133">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J133">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K133">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L133">
+        <f>2/$J$131/K133/10^9</f>
+        <v>1.1263798152737103</v>
       </c>
     </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F99">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>0.3</v>
       </c>
-      <c r="G99">
-        <v>1.8540000000000001</v>
-      </c>
-      <c r="H99">
-        <v>1.8353999999999999</v>
-      </c>
-      <c r="I99">
-        <v>1.8978999999999999</v>
+      <c r="B134">
+        <v>0.106</v>
+      </c>
+      <c r="C134">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D134">
+        <v>0.114</v>
+      </c>
+      <c r="E134">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F134">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G134">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H134">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I134">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J134">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K134">
+        <v>1.2766</v>
+      </c>
+      <c r="L134">
+        <f t="shared" ref="L134:L137" si="38">2/$J$131/K134/10^9</f>
+        <v>0.6811571497660226</v>
       </c>
     </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F100">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>0.5</v>
       </c>
-      <c r="G100">
-        <v>2.222</v>
-      </c>
-      <c r="H100">
-        <v>2.1978</v>
-      </c>
-      <c r="I100">
-        <v>2.1827000000000001</v>
+      <c r="B135">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C135">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D135">
+        <v>0.121</v>
+      </c>
+      <c r="E135">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F135">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G135">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H135">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I135">
+        <v>0.04</v>
+      </c>
+      <c r="J135">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K135">
+        <v>1.4696</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="38"/>
+        <v>0.59170197155096926</v>
       </c>
     </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F101">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>0.7</v>
       </c>
-      <c r="G101">
-        <v>2.327</v>
-      </c>
-      <c r="H101">
-        <v>2.3168000000000002</v>
-      </c>
-      <c r="I101">
-        <v>2.3304</v>
+      <c r="B136">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C136">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D136">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E136">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F136">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G136">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H136">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I136">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J136">
+        <v>0.03</v>
+      </c>
+      <c r="K136">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="38"/>
+        <v>0.51120824067683968</v>
       </c>
     </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F102">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>0.9</v>
       </c>
-      <c r="G102">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="H102">
-        <v>2.1903000000000001</v>
-      </c>
-      <c r="I102">
-        <v>2.1796000000000002</v>
+      <c r="B137">
+        <v>0.308</v>
+      </c>
+      <c r="C137">
+        <v>0.27</v>
+      </c>
+      <c r="D137">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E137">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F137">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G137">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H137">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I137">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J137">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K137">
+        <v>1.9402999999999999</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="38"/>
+        <v>0.4481601903784489</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140">
+        <f>27*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18
++37*(0.25+0.75)*7*0.18</f>
+        <v>146.80079999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>48</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141">
+        <f>2/H140/J141*10^6</f>
+        <v>4697897916181.6104</v>
+      </c>
+      <c r="I141" t="s">
+        <v>41</v>
+      </c>
+      <c r="J141">
+        <v>2.8999999999999999E-9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142" t="s">
+        <v>38</v>
+      </c>
+      <c r="I142" t="s">
+        <v>62</v>
+      </c>
+      <c r="J142" t="s">
+        <v>63</v>
+      </c>
+      <c r="K142" t="s">
+        <v>39</v>
+      </c>
+      <c r="L142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.1</v>
+      </c>
+      <c r="B143">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C143">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D143">
+        <v>0.113</v>
+      </c>
+      <c r="E143">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F143">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G143">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H143">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I143">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J143">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K143">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="L143">
+        <f>2/$J$131/K143/10^9</f>
+        <v>0.84653934714885559</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.3</v>
+      </c>
+      <c r="B144">
+        <v>0.16</v>
+      </c>
+      <c r="C144">
+        <v>0.105</v>
+      </c>
+      <c r="D144">
+        <v>0.183</v>
+      </c>
+      <c r="E144">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F144">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G144">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H144">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I144">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J144">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K144">
+        <v>1.4626999999999999</v>
+      </c>
+      <c r="L144">
+        <f t="shared" ref="L144:L147" si="39">2/$J$131/K144/10^9</f>
+        <v>0.59449320940131567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.5</v>
+      </c>
+      <c r="B145">
+        <v>0.224</v>
+      </c>
+      <c r="C145">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D145">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E145">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F145">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G145">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H145">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I145">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J145">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K145">
+        <v>1.591</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="39"/>
+        <v>0.54655261935342825</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.7</v>
+      </c>
+      <c r="B146">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C146">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D146">
+        <v>0.223</v>
+      </c>
+      <c r="E146">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F146">
+        <v>0.152</v>
+      </c>
+      <c r="G146">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H146">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I146">
+        <v>0.02</v>
+      </c>
+      <c r="J146">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K146">
+        <v>1.6194999999999999</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="39"/>
+        <v>0.53693437319623616</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.9</v>
+      </c>
+      <c r="B147">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C147">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D147">
+        <v>0.23</v>
+      </c>
+      <c r="E147">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F147">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G147">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H147">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I147">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J147">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K147">
+        <v>1.6032</v>
+      </c>
+      <c r="L147">
+        <f>2/$J$131/K147/10^9</f>
+        <v>0.54239347392172177</v>
       </c>
     </row>
   </sheetData>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B779E10-52C3-43A9-AE53-727D03081B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907D6AE-5722-4210-B53E-348DA5521238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17388" yWindow="0" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="744" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$132:$J$132</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$133:$J$133</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$132:$J$132</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$133:$J$133</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="68">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +274,18 @@
   </si>
   <si>
     <t>Interleaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inverting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interleaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22605,15 +22611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:colOff>176156</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
+      <xdr:colOff>214256</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23164,10 +23170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE147"/>
+  <dimension ref="A1:AE169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -26620,6 +26626,12 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
       <c r="G106" t="s">
         <v>50</v>
       </c>
@@ -26954,6 +26966,9 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
       <c r="G118" t="s">
         <v>49</v>
       </c>
@@ -27185,11 +27200,11 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I125">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <f t="shared" si="37"/>
-        <v>3.7037037037037028</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -27205,8 +27220,8 @@
         <v>49</v>
       </c>
       <c r="H130">
-        <f>64*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18</f>
-        <v>193.42079999999999</v>
+        <f>67*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18</f>
+        <v>200.98079999999999</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -27224,7 +27239,7 @@
       </c>
       <c r="H131">
         <f>2/H130/J131*10^6</f>
-        <v>4495717199966.624</v>
+        <v>4326608399366.0313</v>
       </c>
       <c r="I131" t="s">
         <v>41</v>
@@ -27477,9 +27492,9 @@
         <v>49</v>
       </c>
       <c r="H140">
-        <f>27*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18
+        <f>30*(0.25+0.75)*14*0.18+(0.42+0.51)*3*64*0.18
 +37*(0.25+0.75)*7*0.18</f>
-        <v>146.80079999999998</v>
+        <v>154.36079999999998</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -27497,7 +27512,7 @@
       </c>
       <c r="H141">
         <f>2/H140/J141*10^6</f>
-        <v>4697897916181.6104</v>
+        <v>4467812892999.9922</v>
       </c>
       <c r="I141" t="s">
         <v>41</v>
@@ -27579,8 +27594,8 @@
         <v>1.0271999999999999</v>
       </c>
       <c r="L143">
-        <f>2/$J$131/K143/10^9</f>
-        <v>0.84653934714885559</v>
+        <f t="shared" ref="L143:L146" si="39">2/$J$141/K143/10^9</f>
+        <v>0.67139327532495441</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -27618,8 +27633,8 @@
         <v>1.4626999999999999</v>
       </c>
       <c r="L144">
-        <f t="shared" ref="L144:L147" si="39">2/$J$131/K144/10^9</f>
-        <v>0.59449320940131567</v>
+        <f t="shared" si="39"/>
+        <v>0.47149461435276757</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -27658,7 +27673,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="39"/>
-        <v>0.54655261935342825</v>
+        <v>0.43347276707340859</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -27697,7 +27712,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="39"/>
-        <v>0.53693437319623616</v>
+        <v>0.42584450287977343</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -27735,8 +27750,563 @@
         <v>1.6032</v>
       </c>
       <c r="L147">
-        <f>2/$J$131/K147/10^9</f>
-        <v>0.54239347392172177</v>
+        <f>2/$J$141/K147/10^9</f>
+        <v>0.43017413448964142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>61</v>
+      </c>
+      <c r="B151" t="s">
+        <v>65</v>
+      </c>
+      <c r="G151" t="s">
+        <v>49</v>
+      </c>
+      <c r="H151">
+        <f>64*(0.25+0.75)*12*0.18
++3*(0.25+0.75)*14*0.18
++(0.42+0.51)*2*64*0.18
++(0.25+0.75)*10*0.18</f>
+        <v>169.02720000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152">
+        <f>2/H151/J152*10^6</f>
+        <v>5144528320834.1865</v>
+      </c>
+      <c r="I152" t="s">
+        <v>41</v>
+      </c>
+      <c r="J152">
+        <v>2.2999999999999999E-9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="s">
+        <v>37</v>
+      </c>
+      <c r="H153" t="s">
+        <v>38</v>
+      </c>
+      <c r="I153" t="s">
+        <v>62</v>
+      </c>
+      <c r="J153" t="s">
+        <v>63</v>
+      </c>
+      <c r="K153" t="s">
+        <v>39</v>
+      </c>
+      <c r="L153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.1</v>
+      </c>
+      <c r="B154">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C154">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D154">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E154">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F154">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G154">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H154">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I154">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J154">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K154">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="L154">
+        <f t="shared" ref="L154:L157" si="40">2/$J$152/K154/10^9</f>
+        <v>1.4889815366289458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.3</v>
+      </c>
+      <c r="B155">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C155">
+        <v>0.106</v>
+      </c>
+      <c r="D155">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E155">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F155">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G155">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H155">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I155">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J155">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K155">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="40"/>
+        <v>0.89924014207994252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.5</v>
+      </c>
+      <c r="B156">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C156">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D156">
+        <v>0.105</v>
+      </c>
+      <c r="E156">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F156">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G156">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H156">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I156">
+        <v>0.03</v>
+      </c>
+      <c r="J156">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K156">
+        <v>1.2193000000000001</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="40"/>
+        <v>0.71316756941794823</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.7</v>
+      </c>
+      <c r="B157">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C157">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D157">
+        <v>0.113</v>
+      </c>
+      <c r="E157">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F157">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G157">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H157">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I157">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J157">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K157">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="40"/>
+        <v>0.63379389022689825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0.9</v>
+      </c>
+      <c r="B158">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C158">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D158">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E158">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F158">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G158">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H158">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I158">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J158">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K158">
+        <f>1.5857</f>
+        <v>1.5857000000000001</v>
+      </c>
+      <c r="L158">
+        <f>2/$J$152/K158/10^9</f>
+        <v>0.54837940177291056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" t="s">
+        <v>65</v>
+      </c>
+      <c r="G162" t="s">
+        <v>49</v>
+      </c>
+      <c r="H162">
+        <f>26*(0.25+0.75)*12*0.18
++4*(0.25*0.75)*14*0.18
++(0.42+0.51)*2*64*0.18
++37*(0.25+0.75)*7*0.18
++3*(0.25+0.75)*0.18</f>
+        <v>126.63719999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>48</v>
+      </c>
+      <c r="G163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163">
+        <f>2/H162/J163*10^6</f>
+        <v>5353609379352.3174</v>
+      </c>
+      <c r="I163" t="s">
+        <v>41</v>
+      </c>
+      <c r="J163">
+        <v>2.9499999999999999E-9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+      <c r="I164" t="s">
+        <v>62</v>
+      </c>
+      <c r="J164" t="s">
+        <v>63</v>
+      </c>
+      <c r="K164" t="s">
+        <v>39</v>
+      </c>
+      <c r="L164" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.1</v>
+      </c>
+      <c r="B165">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C165">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D165">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E165">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F165">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G165">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H165">
+        <v>0.41</v>
+      </c>
+      <c r="I165">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J165">
+        <v>0.02</v>
+      </c>
+      <c r="K165">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L165">
+        <f t="shared" ref="L165:L168" si="41">2/$J$163/K165/10^9</f>
+        <v>0.81388487598429216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.3</v>
+      </c>
+      <c r="B166">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C166">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D166">
+        <v>0.13</v>
+      </c>
+      <c r="E166">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F166">
+        <v>0.09</v>
+      </c>
+      <c r="G166">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H166">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I166">
+        <v>0.02</v>
+      </c>
+      <c r="J166">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K166">
+        <v>1.1751</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="41"/>
+        <v>0.57694332541478621</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0.5</v>
+      </c>
+      <c r="B167">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C167">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D167">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E167">
+        <v>0.06</v>
+      </c>
+      <c r="F167">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G167">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H167">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I167">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J167">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K167">
+        <v>1.2938000000000001</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="41"/>
+        <v>0.52401151777316068</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.7</v>
+      </c>
+      <c r="B168">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C168">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D168">
+        <v>0.161</v>
+      </c>
+      <c r="E168">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F168">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G168">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H168">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I168">
+        <v>0.02</v>
+      </c>
+      <c r="J168">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K168">
+        <v>1.3207</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="41"/>
+        <v>0.51333845816227397</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.9</v>
+      </c>
+      <c r="B169">
+        <v>0.254</v>
+      </c>
+      <c r="C169">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D169">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E169">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F169">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G169">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H169">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I169">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J169">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K169">
+        <v>1.3211999999999999</v>
+      </c>
+      <c r="L169">
+        <f>2/$J$163/K169/10^9</f>
+        <v>0.51314418838549447</v>
       </c>
     </row>
   </sheetData>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907D6AE-5722-4210-B53E-348DA5521238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93E676-3672-4EE7-8F64-5EF24DBA0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="744" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="624" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23172,7 +23172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>

--- a/tree/table.xlsx
+++ b/tree/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\TTLiu_Project\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93E676-3672-4EE7-8F64-5EF24DBA0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86DC9E-DC84-490F-ACCC-BE35FC277CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="624" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22868,16 +22868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>159872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>75225</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>403932</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>156687</xdr:rowOff>
+      <xdr:rowOff>22217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23172,20 +23172,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M137" sqref="M133:M137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25766,7 +25766,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -25819,7 +25819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.1</v>
       </c>
@@ -25863,8 +25863,12 @@
         <f>2/J69/$B$17*1000000</f>
         <v>2299363094817.6401</v>
       </c>
+      <c r="L71">
+        <f t="shared" ref="L71:L73" si="32">B71/SUM(B71:H71)</f>
+        <v>5.0600059291056196E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.3</v>
       </c>
@@ -25893,11 +25897,15 @@
         <v>1.8540000000000001</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J75" si="32">2/$J$69/I72/10^9</f>
+        <f t="shared" ref="J72:J75" si="33">2/$J$69/I72/10^9</f>
         <v>0.41490332752468667</v>
       </c>
+      <c r="L72">
+        <f t="shared" si="32"/>
+        <v>9.1283405842137968E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.5</v>
       </c>
@@ -25926,11 +25934,15 @@
         <v>2.222</v>
       </c>
       <c r="J73">
+        <f t="shared" si="33"/>
+        <v>0.34618846500034617</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="32"/>
-        <v>0.34618846500034617</v>
+        <v>0.12955465587044537</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.7</v>
       </c>
@@ -25959,11 +25971,15 @@
         <v>2.327</v>
       </c>
       <c r="J74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.33056758454265972</v>
       </c>
+      <c r="L74">
+        <f>B74/SUM(B74:H74)</f>
+        <v>0.17182662538699689</v>
+      </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.9</v>
       </c>
@@ -25992,11 +26008,15 @@
         <v>2.1930000000000001</v>
       </c>
       <c r="J75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.35076642463783358</v>
       </c>
+      <c r="L75">
+        <f>B75/SUM(B75:H75)</f>
+        <v>0.23456790123456792</v>
+      </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -26032,7 +26052,7 @@
         <v>1.955633636</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -26049,7 +26069,7 @@
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -26081,7 +26101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.1</v>
       </c>
@@ -26143,7 +26163,7 @@
         <v>1.8353999999999999</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:J84" si="33">2/$J$69/I81/10^9</f>
+        <f t="shared" ref="J81:J84" si="34">2/$J$69/I81/10^9</f>
         <v>0.41910797059538479</v>
       </c>
     </row>
@@ -26176,7 +26196,7 @@
         <v>2.1978</v>
       </c>
       <c r="J82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.35000035000035001</v>
       </c>
     </row>
@@ -26209,7 +26229,7 @@
         <v>2.3168000000000002</v>
       </c>
       <c r="J83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33202294942626431</v>
       </c>
     </row>
@@ -26242,7 +26262,7 @@
         <v>2.1903000000000001</v>
       </c>
       <c r="J84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.35119881716238371</v>
       </c>
     </row>
@@ -26357,7 +26377,7 @@
         <v>1.8978999999999999</v>
       </c>
       <c r="J90">
-        <f t="shared" ref="J90:J93" si="34">2/$J$69/I90/10^9</f>
+        <f t="shared" ref="J90:J93" si="35">2/$J$69/I90/10^9</f>
         <v>0.40530626968268568</v>
       </c>
     </row>
@@ -26390,7 +26410,7 @@
         <v>2.1827000000000001</v>
       </c>
       <c r="J91">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.35242166547430664</v>
       </c>
     </row>
@@ -26423,7 +26443,7 @@
         <v>2.3304</v>
       </c>
       <c r="J92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33008529403997988</v>
       </c>
     </row>
@@ -26456,7 +26476,7 @@
         <v>2.1796000000000002</v>
       </c>
       <c r="J93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.35292290752008121</v>
       </c>
     </row>
@@ -26775,11 +26795,11 @@
         <v>2.2130000000000001</v>
       </c>
       <c r="J110">
-        <f t="shared" ref="J110:J113" si="35">2/$J$107/I110/10^9</f>
+        <f t="shared" ref="J110:J113" si="36">2/$J$107/I110/10^9</f>
         <v>0.31163812580831135</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:K113" si="36">I110/I72-1</f>
+        <f t="shared" ref="K110:K113" si="37">I110/I72-1</f>
         <v>0.19363538295577132</v>
       </c>
       <c r="N110" t="s">
@@ -26825,11 +26845,11 @@
         <v>2.5785</v>
       </c>
       <c r="J111">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26746370851805046</v>
       </c>
       <c r="K111">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.1604410441044104</v>
       </c>
       <c r="N111" t="s">
@@ -26869,11 +26889,11 @@
         <v>2.6120999999999999</v>
       </c>
       <c r="J112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26402326573017615</v>
       </c>
       <c r="K112">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.12251826385904585</v>
       </c>
       <c r="N112" t="s">
@@ -26913,11 +26933,11 @@
         <v>2.4556</v>
       </c>
       <c r="J113">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.2808499643320545</v>
       </c>
       <c r="K113">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11974464204286361</v>
       </c>
     </row>
@@ -27104,7 +27124,7 @@
         <v>1.8121</v>
       </c>
       <c r="J122">
-        <f t="shared" ref="J122:J125" si="37">2/$J$119/I122/10^9</f>
+        <f t="shared" ref="J122:J125" si="38">2/$J$119/I122/10^9</f>
         <v>0.40877475897618271</v>
       </c>
     </row>
@@ -27137,7 +27157,7 @@
         <v>2.0457000000000001</v>
       </c>
       <c r="J123">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.36209646611953883</v>
       </c>
     </row>
@@ -27170,7 +27190,7 @@
         <v>2.0722999999999998</v>
       </c>
       <c r="J124">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.35744860335894452</v>
       </c>
     </row>
@@ -27203,7 +27223,7 @@
         <v>2</v>
       </c>
       <c r="J125">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.37037037037037035</v>
       </c>
     </row>
@@ -27212,7 +27232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -27224,7 +27244,7 @@
         <v>200.98079999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -27248,7 +27268,7 @@
         <v>2.2999999999999999E-9</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -27286,7 +27306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.1</v>
       </c>
@@ -27324,8 +27344,12 @@
         <f>2/$J$131/K133/10^9</f>
         <v>1.1263798152737103</v>
       </c>
+      <c r="M133">
+        <f t="shared" ref="M133:M136" si="39">B133/SUM(B133:J133)</f>
+        <v>7.7830188679245293E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.3</v>
       </c>
@@ -27360,11 +27384,15 @@
         <v>1.2766</v>
       </c>
       <c r="L134">
-        <f t="shared" ref="L134:L137" si="38">2/$J$131/K134/10^9</f>
+        <f t="shared" ref="L134:L137" si="40">2/$J$131/K134/10^9</f>
         <v>0.6811571497660226</v>
       </c>
+      <c r="M134">
+        <f t="shared" si="39"/>
+        <v>0.15035460992907798</v>
+      </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.5</v>
       </c>
@@ -27399,11 +27427,15 @@
         <v>1.4696</v>
       </c>
       <c r="L135">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.59170197155096926</v>
       </c>
+      <c r="M135">
+        <f t="shared" si="39"/>
+        <v>0.20689655172413793</v>
+      </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.7</v>
       </c>
@@ -27438,11 +27470,15 @@
         <v>1.7010000000000001</v>
       </c>
       <c r="L136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.51120824067683968</v>
       </c>
+      <c r="M136">
+        <f t="shared" si="39"/>
+        <v>0.25155925155925152</v>
+      </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.9</v>
       </c>
@@ -27477,11 +27513,15 @@
         <v>1.9402999999999999</v>
       </c>
       <c r="L137">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.4481601903784489</v>
       </c>
+      <c r="M137">
+        <f>B137/SUM(B137:J137)</f>
+        <v>0.26506024096385544</v>
+      </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -27497,7 +27537,7 @@
         <v>154.36079999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -27521,7 +27561,7 @@
         <v>2.8999999999999999E-9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -27559,7 +27599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.1</v>
       </c>
@@ -27594,11 +27634,11 @@
         <v>1.0271999999999999</v>
       </c>
       <c r="L143">
-        <f t="shared" ref="L143:L146" si="39">2/$J$141/K143/10^9</f>
+        <f t="shared" ref="L143:L146" si="41">2/$J$141/K143/10^9</f>
         <v>0.67139327532495441</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.3</v>
       </c>
@@ -27633,7 +27673,7 @@
         <v>1.4626999999999999</v>
       </c>
       <c r="L144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.47149461435276757</v>
       </c>
     </row>
@@ -27672,7 +27712,7 @@
         <v>1.591</v>
       </c>
       <c r="L145">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.43347276707340859</v>
       </c>
     </row>
@@ -27711,7 +27751,7 @@
         <v>1.6194999999999999</v>
       </c>
       <c r="L146">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.42584450287977343</v>
       </c>
     </row>
@@ -27869,7 +27909,7 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="L154">
-        <f t="shared" ref="L154:L157" si="40">2/$J$152/K154/10^9</f>
+        <f t="shared" ref="L154:L157" si="42">2/$J$152/K154/10^9</f>
         <v>1.4889815366289458</v>
       </c>
     </row>
@@ -27908,7 +27948,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="L155">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.89924014207994252</v>
       </c>
     </row>
@@ -27947,7 +27987,7 @@
         <v>1.2193000000000001</v>
       </c>
       <c r="L156">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.71316756941794823</v>
       </c>
     </row>
@@ -27986,7 +28026,7 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="L157">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.63379389022689825</v>
       </c>
     </row>
@@ -28149,7 +28189,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="L165">
-        <f t="shared" ref="L165:L168" si="41">2/$J$163/K165/10^9</f>
+        <f t="shared" ref="L165:L168" si="43">2/$J$163/K165/10^9</f>
         <v>0.81388487598429216</v>
       </c>
     </row>
@@ -28188,7 +28228,7 @@
         <v>1.1751</v>
       </c>
       <c r="L166">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.57694332541478621</v>
       </c>
     </row>
@@ -28227,7 +28267,7 @@
         <v>1.2938000000000001</v>
       </c>
       <c r="L167">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52401151777316068</v>
       </c>
     </row>
@@ -28266,7 +28306,7 @@
         <v>1.3207</v>
       </c>
       <c r="L168">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.51333845816227397</v>
       </c>
     </row>
